--- a/scripts/base2000.xlsx
+++ b/scripts/base2000.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daiane.mattos\Dropbox\Tiago\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daiane.mattos\Dropbox\Github\ArtigoBR\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2243,8 +2243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EL219"/>
   <sheetViews>
-    <sheetView topLeftCell="DJ1" workbookViewId="0">
-      <selection activeCell="EC2" sqref="EC2"/>
+    <sheetView topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="DH2" sqref="DH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2910,42 +2910,6 @@
       <c r="CG2">
         <v>28.49</v>
       </c>
-      <c r="DF2">
-        <v>106.4</v>
-      </c>
-      <c r="DG2">
-        <v>96.52</v>
-      </c>
-      <c r="DH2">
-        <v>118.39</v>
-      </c>
-      <c r="DI2">
-        <v>103.75</v>
-      </c>
-      <c r="DJ2">
-        <v>111.01</v>
-      </c>
-      <c r="DK2">
-        <v>109.46</v>
-      </c>
-      <c r="DL2">
-        <v>109.66</v>
-      </c>
-      <c r="DM2">
-        <v>108.01</v>
-      </c>
-      <c r="DN2">
-        <v>105.31</v>
-      </c>
-      <c r="DO2">
-        <v>99.94</v>
-      </c>
-      <c r="DP2">
-        <v>132.27000000000001</v>
-      </c>
-      <c r="DQ2">
-        <v>105.02</v>
-      </c>
       <c r="DR2">
         <v>-573.9</v>
       </c>
@@ -3418,6 +3382,42 @@
       <c r="CG4">
         <v>29.51</v>
       </c>
+      <c r="DF4">
+        <v>106.4</v>
+      </c>
+      <c r="DG4">
+        <v>96.52</v>
+      </c>
+      <c r="DH4">
+        <v>118.39</v>
+      </c>
+      <c r="DI4">
+        <v>103.75</v>
+      </c>
+      <c r="DJ4">
+        <v>111.01</v>
+      </c>
+      <c r="DK4">
+        <v>109.46</v>
+      </c>
+      <c r="DL4">
+        <v>109.66</v>
+      </c>
+      <c r="DM4">
+        <v>108.01</v>
+      </c>
+      <c r="DN4">
+        <v>105.31</v>
+      </c>
+      <c r="DO4">
+        <v>99.94</v>
+      </c>
+      <c r="DP4">
+        <v>132.27000000000001</v>
+      </c>
+      <c r="DQ4">
+        <v>105.02</v>
+      </c>
       <c r="DR4">
         <v>-671.7</v>
       </c>
@@ -3660,42 +3660,6 @@
       <c r="CG5">
         <v>28.71</v>
       </c>
-      <c r="DF5">
-        <v>110.25</v>
-      </c>
-      <c r="DG5">
-        <v>108.46</v>
-      </c>
-      <c r="DH5">
-        <v>117.81</v>
-      </c>
-      <c r="DI5">
-        <v>104.24</v>
-      </c>
-      <c r="DJ5">
-        <v>111.61</v>
-      </c>
-      <c r="DK5">
-        <v>110.07</v>
-      </c>
-      <c r="DL5">
-        <v>110.69</v>
-      </c>
-      <c r="DM5">
-        <v>109.49</v>
-      </c>
-      <c r="DN5">
-        <v>104.37</v>
-      </c>
-      <c r="DO5">
-        <v>105.53</v>
-      </c>
-      <c r="DP5">
-        <v>135.01</v>
-      </c>
-      <c r="DQ5">
-        <v>109.84</v>
-      </c>
       <c r="DR5">
         <v>-430.4</v>
       </c>
@@ -4186,6 +4150,42 @@
       <c r="CG7">
         <v>34.94</v>
       </c>
+      <c r="DF7">
+        <v>110.25</v>
+      </c>
+      <c r="DG7">
+        <v>108.46</v>
+      </c>
+      <c r="DH7">
+        <v>117.81</v>
+      </c>
+      <c r="DI7">
+        <v>104.24</v>
+      </c>
+      <c r="DJ7">
+        <v>111.61</v>
+      </c>
+      <c r="DK7">
+        <v>110.07</v>
+      </c>
+      <c r="DL7">
+        <v>110.69</v>
+      </c>
+      <c r="DM7">
+        <v>109.49</v>
+      </c>
+      <c r="DN7">
+        <v>104.37</v>
+      </c>
+      <c r="DO7">
+        <v>105.53</v>
+      </c>
+      <c r="DP7">
+        <v>135.01</v>
+      </c>
+      <c r="DQ7">
+        <v>109.84</v>
+      </c>
       <c r="DR7">
         <v>-475.2</v>
       </c>
@@ -4431,42 +4431,6 @@
       <c r="CG8">
         <v>34.04</v>
       </c>
-      <c r="DF8">
-        <v>114.19</v>
-      </c>
-      <c r="DG8">
-        <v>124.19</v>
-      </c>
-      <c r="DH8">
-        <v>116.56</v>
-      </c>
-      <c r="DI8">
-        <v>104.97</v>
-      </c>
-      <c r="DJ8">
-        <v>113.03</v>
-      </c>
-      <c r="DK8">
-        <v>111.12</v>
-      </c>
-      <c r="DL8">
-        <v>111.52</v>
-      </c>
-      <c r="DM8">
-        <v>111.25</v>
-      </c>
-      <c r="DN8">
-        <v>102.96</v>
-      </c>
-      <c r="DO8">
-        <v>104.92</v>
-      </c>
-      <c r="DP8">
-        <v>147.11000000000001</v>
-      </c>
-      <c r="DQ8">
-        <v>120.16</v>
-      </c>
       <c r="DR8">
         <v>-709.4</v>
       </c>
@@ -4957,6 +4921,42 @@
       <c r="CG10">
         <v>39.72</v>
       </c>
+      <c r="DF10">
+        <v>114.19</v>
+      </c>
+      <c r="DG10">
+        <v>124.19</v>
+      </c>
+      <c r="DH10">
+        <v>116.56</v>
+      </c>
+      <c r="DI10">
+        <v>104.97</v>
+      </c>
+      <c r="DJ10">
+        <v>113.03</v>
+      </c>
+      <c r="DK10">
+        <v>111.12</v>
+      </c>
+      <c r="DL10">
+        <v>111.52</v>
+      </c>
+      <c r="DM10">
+        <v>111.25</v>
+      </c>
+      <c r="DN10">
+        <v>102.96</v>
+      </c>
+      <c r="DO10">
+        <v>104.92</v>
+      </c>
+      <c r="DP10">
+        <v>147.11000000000001</v>
+      </c>
+      <c r="DQ10">
+        <v>120.16</v>
+      </c>
       <c r="DR10">
         <v>-542.29999999999995</v>
       </c>
@@ -5202,42 +5202,6 @@
       <c r="CG11">
         <v>40.549999999999997</v>
       </c>
-      <c r="DF11">
-        <v>113.98</v>
-      </c>
-      <c r="DG11">
-        <v>125.92</v>
-      </c>
-      <c r="DH11">
-        <v>117.3</v>
-      </c>
-      <c r="DI11">
-        <v>106.65</v>
-      </c>
-      <c r="DJ11">
-        <v>114.31</v>
-      </c>
-      <c r="DK11">
-        <v>112.59</v>
-      </c>
-      <c r="DL11">
-        <v>113.01</v>
-      </c>
-      <c r="DM11">
-        <v>112.27</v>
-      </c>
-      <c r="DN11">
-        <v>104.12</v>
-      </c>
-      <c r="DO11">
-        <v>108.05</v>
-      </c>
-      <c r="DP11">
-        <v>144.4</v>
-      </c>
-      <c r="DQ11">
-        <v>124.27</v>
-      </c>
       <c r="DR11">
         <v>-1360.8</v>
       </c>
@@ -5728,6 +5692,42 @@
       <c r="CG13">
         <v>47.08</v>
       </c>
+      <c r="DF13">
+        <v>113.98</v>
+      </c>
+      <c r="DG13">
+        <v>125.92</v>
+      </c>
+      <c r="DH13">
+        <v>117.3</v>
+      </c>
+      <c r="DI13">
+        <v>106.65</v>
+      </c>
+      <c r="DJ13">
+        <v>114.31</v>
+      </c>
+      <c r="DK13">
+        <v>112.59</v>
+      </c>
+      <c r="DL13">
+        <v>113.01</v>
+      </c>
+      <c r="DM13">
+        <v>112.27</v>
+      </c>
+      <c r="DN13">
+        <v>104.12</v>
+      </c>
+      <c r="DO13">
+        <v>108.05</v>
+      </c>
+      <c r="DP13">
+        <v>144.4</v>
+      </c>
+      <c r="DQ13">
+        <v>124.27</v>
+      </c>
       <c r="DR13">
         <v>-1217.8</v>
       </c>
@@ -5973,42 +5973,6 @@
       <c r="CG14">
         <v>44.66</v>
       </c>
-      <c r="DF14">
-        <v>110.1</v>
-      </c>
-      <c r="DG14">
-        <v>119.95</v>
-      </c>
-      <c r="DH14">
-        <v>121.35</v>
-      </c>
-      <c r="DI14">
-        <v>107.65</v>
-      </c>
-      <c r="DJ14">
-        <v>113.61</v>
-      </c>
-      <c r="DK14">
-        <v>112.51</v>
-      </c>
-      <c r="DL14">
-        <v>113.34</v>
-      </c>
-      <c r="DM14">
-        <v>112.26</v>
-      </c>
-      <c r="DN14">
-        <v>106.35</v>
-      </c>
-      <c r="DO14">
-        <v>109.58</v>
-      </c>
-      <c r="DP14">
-        <v>148.19999999999999</v>
-      </c>
-      <c r="DQ14">
-        <v>127.49</v>
-      </c>
       <c r="DR14">
         <v>-1226.5</v>
       </c>
@@ -6523,6 +6487,42 @@
       <c r="CG16">
         <v>44.69</v>
       </c>
+      <c r="DF16">
+        <v>110.1</v>
+      </c>
+      <c r="DG16">
+        <v>119.95</v>
+      </c>
+      <c r="DH16">
+        <v>121.35</v>
+      </c>
+      <c r="DI16">
+        <v>107.65</v>
+      </c>
+      <c r="DJ16">
+        <v>113.61</v>
+      </c>
+      <c r="DK16">
+        <v>112.51</v>
+      </c>
+      <c r="DL16">
+        <v>113.34</v>
+      </c>
+      <c r="DM16">
+        <v>112.26</v>
+      </c>
+      <c r="DN16">
+        <v>106.35</v>
+      </c>
+      <c r="DO16">
+        <v>109.58</v>
+      </c>
+      <c r="DP16">
+        <v>148.19999999999999</v>
+      </c>
+      <c r="DQ16">
+        <v>127.49</v>
+      </c>
       <c r="DR16">
         <v>-1022.2</v>
       </c>
@@ -6780,42 +6780,6 @@
       <c r="CG17">
         <v>47.6</v>
       </c>
-      <c r="DF17">
-        <v>112.82</v>
-      </c>
-      <c r="DG17">
-        <v>122.37</v>
-      </c>
-      <c r="DH17">
-        <v>120.99</v>
-      </c>
-      <c r="DI17">
-        <v>105.07</v>
-      </c>
-      <c r="DJ17">
-        <v>115.07</v>
-      </c>
-      <c r="DK17">
-        <v>112.78</v>
-      </c>
-      <c r="DL17">
-        <v>113.17</v>
-      </c>
-      <c r="DM17">
-        <v>112.87</v>
-      </c>
-      <c r="DN17">
-        <v>106.63</v>
-      </c>
-      <c r="DO17">
-        <v>108.55</v>
-      </c>
-      <c r="DP17">
-        <v>155.11000000000001</v>
-      </c>
-      <c r="DQ17">
-        <v>123.74</v>
-      </c>
       <c r="DR17">
         <v>-428.3</v>
       </c>
@@ -7330,6 +7294,42 @@
       <c r="CG19">
         <v>48.53</v>
       </c>
+      <c r="DF19">
+        <v>112.82</v>
+      </c>
+      <c r="DG19">
+        <v>122.37</v>
+      </c>
+      <c r="DH19">
+        <v>120.99</v>
+      </c>
+      <c r="DI19">
+        <v>105.07</v>
+      </c>
+      <c r="DJ19">
+        <v>115.07</v>
+      </c>
+      <c r="DK19">
+        <v>112.78</v>
+      </c>
+      <c r="DL19">
+        <v>113.17</v>
+      </c>
+      <c r="DM19">
+        <v>112.87</v>
+      </c>
+      <c r="DN19">
+        <v>106.63</v>
+      </c>
+      <c r="DO19">
+        <v>108.55</v>
+      </c>
+      <c r="DP19">
+        <v>155.11000000000001</v>
+      </c>
+      <c r="DQ19">
+        <v>123.74</v>
+      </c>
       <c r="DR19">
         <v>-717.1</v>
       </c>
@@ -7587,42 +7587,6 @@
       <c r="CG20">
         <v>47.25</v>
       </c>
-      <c r="DF20">
-        <v>114.71</v>
-      </c>
-      <c r="DG20">
-        <v>117.73</v>
-      </c>
-      <c r="DH20">
-        <v>124.04</v>
-      </c>
-      <c r="DI20">
-        <v>102.04</v>
-      </c>
-      <c r="DJ20">
-        <v>115.08</v>
-      </c>
-      <c r="DK20">
-        <v>112.05</v>
-      </c>
-      <c r="DL20">
-        <v>112.12</v>
-      </c>
-      <c r="DM20">
-        <v>109.32</v>
-      </c>
-      <c r="DN20">
-        <v>106.68</v>
-      </c>
-      <c r="DO20">
-        <v>106.1</v>
-      </c>
-      <c r="DP20">
-        <v>151.31</v>
-      </c>
-      <c r="DQ20">
-        <v>114.29</v>
-      </c>
       <c r="DR20">
         <v>-808.1</v>
       </c>
@@ -8137,6 +8101,42 @@
       <c r="CG22">
         <v>47.77</v>
       </c>
+      <c r="DF22">
+        <v>114.71</v>
+      </c>
+      <c r="DG22">
+        <v>117.73</v>
+      </c>
+      <c r="DH22">
+        <v>124.04</v>
+      </c>
+      <c r="DI22">
+        <v>102.04</v>
+      </c>
+      <c r="DJ22">
+        <v>115.08</v>
+      </c>
+      <c r="DK22">
+        <v>112.05</v>
+      </c>
+      <c r="DL22">
+        <v>112.12</v>
+      </c>
+      <c r="DM22">
+        <v>109.32</v>
+      </c>
+      <c r="DN22">
+        <v>106.68</v>
+      </c>
+      <c r="DO22">
+        <v>106.1</v>
+      </c>
+      <c r="DP22">
+        <v>151.31</v>
+      </c>
+      <c r="DQ22">
+        <v>114.29</v>
+      </c>
       <c r="DR22">
         <v>20.100000000000001</v>
       </c>
@@ -8394,42 +8394,6 @@
       <c r="CG23">
         <v>45.99</v>
       </c>
-      <c r="DF23">
-        <v>113.38</v>
-      </c>
-      <c r="DG23">
-        <v>110.19</v>
-      </c>
-      <c r="DH23">
-        <v>130.80000000000001</v>
-      </c>
-      <c r="DI23">
-        <v>102.02</v>
-      </c>
-      <c r="DJ23">
-        <v>115.46</v>
-      </c>
-      <c r="DK23">
-        <v>112.59</v>
-      </c>
-      <c r="DL23">
-        <v>112.42</v>
-      </c>
-      <c r="DM23">
-        <v>110.17</v>
-      </c>
-      <c r="DN23">
-        <v>107.96</v>
-      </c>
-      <c r="DO23">
-        <v>99.67</v>
-      </c>
-      <c r="DP23">
-        <v>147.32</v>
-      </c>
-      <c r="DQ23">
-        <v>106.33</v>
-      </c>
       <c r="DR23">
         <v>-397.1</v>
       </c>
@@ -8971,6 +8935,42 @@
       <c r="CG25">
         <v>34.450000000000003</v>
       </c>
+      <c r="DF25">
+        <v>113.38</v>
+      </c>
+      <c r="DG25">
+        <v>110.19</v>
+      </c>
+      <c r="DH25">
+        <v>130.80000000000001</v>
+      </c>
+      <c r="DI25">
+        <v>102.02</v>
+      </c>
+      <c r="DJ25">
+        <v>115.46</v>
+      </c>
+      <c r="DK25">
+        <v>112.59</v>
+      </c>
+      <c r="DL25">
+        <v>112.42</v>
+      </c>
+      <c r="DM25">
+        <v>110.17</v>
+      </c>
+      <c r="DN25">
+        <v>107.96</v>
+      </c>
+      <c r="DO25">
+        <v>99.67</v>
+      </c>
+      <c r="DP25">
+        <v>147.32</v>
+      </c>
+      <c r="DQ25">
+        <v>106.33</v>
+      </c>
       <c r="DR25">
         <v>91.1</v>
       </c>
@@ -9294,42 +9294,6 @@
       <c r="DE26">
         <v>86.7</v>
       </c>
-      <c r="DF26">
-        <v>110.63</v>
-      </c>
-      <c r="DG26">
-        <v>97.66</v>
-      </c>
-      <c r="DH26">
-        <v>126.73</v>
-      </c>
-      <c r="DI26">
-        <v>105.45</v>
-      </c>
-      <c r="DJ26">
-        <v>116.92</v>
-      </c>
-      <c r="DK26">
-        <v>114.84</v>
-      </c>
-      <c r="DL26">
-        <v>114.46</v>
-      </c>
-      <c r="DM26">
-        <v>112.45</v>
-      </c>
-      <c r="DN26">
-        <v>110.8</v>
-      </c>
-      <c r="DO26">
-        <v>102.12</v>
-      </c>
-      <c r="DP26">
-        <v>151.41</v>
-      </c>
-      <c r="DQ26">
-        <v>105.86</v>
-      </c>
       <c r="DR26">
         <v>-152.1</v>
       </c>
@@ -9976,6 +9940,42 @@
       <c r="DE28">
         <v>83.2</v>
       </c>
+      <c r="DF28">
+        <v>110.63</v>
+      </c>
+      <c r="DG28">
+        <v>97.66</v>
+      </c>
+      <c r="DH28">
+        <v>126.73</v>
+      </c>
+      <c r="DI28">
+        <v>105.45</v>
+      </c>
+      <c r="DJ28">
+        <v>116.92</v>
+      </c>
+      <c r="DK28">
+        <v>114.84</v>
+      </c>
+      <c r="DL28">
+        <v>114.46</v>
+      </c>
+      <c r="DM28">
+        <v>112.45</v>
+      </c>
+      <c r="DN28">
+        <v>110.8</v>
+      </c>
+      <c r="DO28">
+        <v>102.12</v>
+      </c>
+      <c r="DP28">
+        <v>151.41</v>
+      </c>
+      <c r="DQ28">
+        <v>105.86</v>
+      </c>
       <c r="DR28">
         <v>33.700000000000003</v>
       </c>
@@ -10299,42 +10299,6 @@
       <c r="DE29">
         <v>78.7</v>
       </c>
-      <c r="DF29">
-        <v>115.41</v>
-      </c>
-      <c r="DG29">
-        <v>102.14</v>
-      </c>
-      <c r="DH29">
-        <v>129.38</v>
-      </c>
-      <c r="DI29">
-        <v>107.89</v>
-      </c>
-      <c r="DJ29">
-        <v>117.75</v>
-      </c>
-      <c r="DK29">
-        <v>115.33</v>
-      </c>
-      <c r="DL29">
-        <v>115.1</v>
-      </c>
-      <c r="DM29">
-        <v>113.67</v>
-      </c>
-      <c r="DN29">
-        <v>110.93</v>
-      </c>
-      <c r="DO29">
-        <v>103.13</v>
-      </c>
-      <c r="DP29">
-        <v>138.52000000000001</v>
-      </c>
-      <c r="DQ29">
-        <v>103.04</v>
-      </c>
       <c r="DR29">
         <v>-114.7</v>
       </c>
@@ -10981,6 +10945,42 @@
       <c r="DE31">
         <v>76.2</v>
       </c>
+      <c r="DF31">
+        <v>115.41</v>
+      </c>
+      <c r="DG31">
+        <v>102.14</v>
+      </c>
+      <c r="DH31">
+        <v>129.38</v>
+      </c>
+      <c r="DI31">
+        <v>107.89</v>
+      </c>
+      <c r="DJ31">
+        <v>117.75</v>
+      </c>
+      <c r="DK31">
+        <v>115.33</v>
+      </c>
+      <c r="DL31">
+        <v>115.1</v>
+      </c>
+      <c r="DM31">
+        <v>113.67</v>
+      </c>
+      <c r="DN31">
+        <v>110.93</v>
+      </c>
+      <c r="DO31">
+        <v>103.13</v>
+      </c>
+      <c r="DP31">
+        <v>138.52000000000001</v>
+      </c>
+      <c r="DQ31">
+        <v>103.04</v>
+      </c>
       <c r="DR31">
         <v>155.19999999999999</v>
       </c>
@@ -11304,42 +11304,6 @@
       <c r="DE32">
         <v>86.7</v>
       </c>
-      <c r="DF32">
-        <v>119.5</v>
-      </c>
-      <c r="DG32">
-        <v>107.59</v>
-      </c>
-      <c r="DH32">
-        <v>139.16</v>
-      </c>
-      <c r="DI32">
-        <v>108.01</v>
-      </c>
-      <c r="DJ32">
-        <v>119.13</v>
-      </c>
-      <c r="DK32">
-        <v>117.19</v>
-      </c>
-      <c r="DL32">
-        <v>116.94</v>
-      </c>
-      <c r="DM32">
-        <v>112.37</v>
-      </c>
-      <c r="DN32">
-        <v>111.15</v>
-      </c>
-      <c r="DO32">
-        <v>105.36</v>
-      </c>
-      <c r="DP32">
-        <v>175.19</v>
-      </c>
-      <c r="DQ32">
-        <v>101.74</v>
-      </c>
       <c r="DR32">
         <v>630.79999999999995</v>
       </c>
@@ -11986,6 +11950,42 @@
       <c r="DE34">
         <v>84.4</v>
       </c>
+      <c r="DF34">
+        <v>119.5</v>
+      </c>
+      <c r="DG34">
+        <v>107.59</v>
+      </c>
+      <c r="DH34">
+        <v>139.16</v>
+      </c>
+      <c r="DI34">
+        <v>108.01</v>
+      </c>
+      <c r="DJ34">
+        <v>119.13</v>
+      </c>
+      <c r="DK34">
+        <v>117.19</v>
+      </c>
+      <c r="DL34">
+        <v>116.94</v>
+      </c>
+      <c r="DM34">
+        <v>112.37</v>
+      </c>
+      <c r="DN34">
+        <v>111.15</v>
+      </c>
+      <c r="DO34">
+        <v>105.36</v>
+      </c>
+      <c r="DP34">
+        <v>175.19</v>
+      </c>
+      <c r="DQ34">
+        <v>101.74</v>
+      </c>
       <c r="DR34">
         <v>2056.5</v>
       </c>
@@ -12309,42 +12309,6 @@
       <c r="DE35">
         <v>97.8</v>
       </c>
-      <c r="DF35">
-        <v>119.24</v>
-      </c>
-      <c r="DG35">
-        <v>100.28</v>
-      </c>
-      <c r="DH35">
-        <v>142.59</v>
-      </c>
-      <c r="DI35">
-        <v>111.26</v>
-      </c>
-      <c r="DJ35">
-        <v>119.8</v>
-      </c>
-      <c r="DK35">
-        <v>118.69</v>
-      </c>
-      <c r="DL35">
-        <v>118.32</v>
-      </c>
-      <c r="DM35">
-        <v>111.92</v>
-      </c>
-      <c r="DN35">
-        <v>111.05</v>
-      </c>
-      <c r="DO35">
-        <v>106.9</v>
-      </c>
-      <c r="DP35">
-        <v>176.23</v>
-      </c>
-      <c r="DQ35">
-        <v>97.39</v>
-      </c>
       <c r="DR35">
         <v>1876.9</v>
       </c>
@@ -12991,6 +12955,42 @@
       <c r="DE37">
         <v>96</v>
       </c>
+      <c r="DF37">
+        <v>119.24</v>
+      </c>
+      <c r="DG37">
+        <v>100.28</v>
+      </c>
+      <c r="DH37">
+        <v>142.59</v>
+      </c>
+      <c r="DI37">
+        <v>111.26</v>
+      </c>
+      <c r="DJ37">
+        <v>119.8</v>
+      </c>
+      <c r="DK37">
+        <v>118.69</v>
+      </c>
+      <c r="DL37">
+        <v>118.32</v>
+      </c>
+      <c r="DM37">
+        <v>111.92</v>
+      </c>
+      <c r="DN37">
+        <v>111.05</v>
+      </c>
+      <c r="DO37">
+        <v>106.9</v>
+      </c>
+      <c r="DP37">
+        <v>176.23</v>
+      </c>
+      <c r="DQ37">
+        <v>97.39</v>
+      </c>
       <c r="DR37">
         <v>1164.5999999999999</v>
       </c>
@@ -13332,42 +13332,6 @@
       <c r="DE38">
         <v>92.3</v>
       </c>
-      <c r="DF38">
-        <v>113.58</v>
-      </c>
-      <c r="DG38">
-        <v>93.13</v>
-      </c>
-      <c r="DH38">
-        <v>146.03</v>
-      </c>
-      <c r="DI38">
-        <v>105.73</v>
-      </c>
-      <c r="DJ38">
-        <v>119.03</v>
-      </c>
-      <c r="DK38">
-        <v>117.11</v>
-      </c>
-      <c r="DL38">
-        <v>116.7</v>
-      </c>
-      <c r="DM38">
-        <v>112.38</v>
-      </c>
-      <c r="DN38">
-        <v>110.01</v>
-      </c>
-      <c r="DO38">
-        <v>103.55</v>
-      </c>
-      <c r="DP38">
-        <v>172.63</v>
-      </c>
-      <c r="DQ38">
-        <v>99.9</v>
-      </c>
       <c r="DR38">
         <v>900.1</v>
       </c>
@@ -14050,6 +14014,42 @@
       <c r="DE40">
         <v>79.900000000000006</v>
       </c>
+      <c r="DF40">
+        <v>113.58</v>
+      </c>
+      <c r="DG40">
+        <v>93.13</v>
+      </c>
+      <c r="DH40">
+        <v>146.03</v>
+      </c>
+      <c r="DI40">
+        <v>105.73</v>
+      </c>
+      <c r="DJ40">
+        <v>119.03</v>
+      </c>
+      <c r="DK40">
+        <v>117.11</v>
+      </c>
+      <c r="DL40">
+        <v>116.7</v>
+      </c>
+      <c r="DM40">
+        <v>112.38</v>
+      </c>
+      <c r="DN40">
+        <v>110.01</v>
+      </c>
+      <c r="DO40">
+        <v>103.55</v>
+      </c>
+      <c r="DP40">
+        <v>172.63</v>
+      </c>
+      <c r="DQ40">
+        <v>99.9</v>
+      </c>
       <c r="DR40">
         <v>1162.5999999999999</v>
       </c>
@@ -14391,42 +14391,6 @@
       <c r="DE41">
         <v>78.7</v>
       </c>
-      <c r="DF41">
-        <v>116.31</v>
-      </c>
-      <c r="DG41">
-        <v>97.94</v>
-      </c>
-      <c r="DH41">
-        <v>146.4</v>
-      </c>
-      <c r="DI41">
-        <v>106.11</v>
-      </c>
-      <c r="DJ41">
-        <v>118.63</v>
-      </c>
-      <c r="DK41">
-        <v>117</v>
-      </c>
-      <c r="DL41">
-        <v>116.67</v>
-      </c>
-      <c r="DM41">
-        <v>111.37</v>
-      </c>
-      <c r="DN41">
-        <v>111.19</v>
-      </c>
-      <c r="DO41">
-        <v>98.19</v>
-      </c>
-      <c r="DP41">
-        <v>176.89</v>
-      </c>
-      <c r="DQ41">
-        <v>98.91</v>
-      </c>
       <c r="DR41">
         <v>1202.0999999999999</v>
       </c>
@@ -15109,6 +15073,42 @@
       <c r="DE43">
         <v>76.599999999999994</v>
       </c>
+      <c r="DF43">
+        <v>116.31</v>
+      </c>
+      <c r="DG43">
+        <v>97.94</v>
+      </c>
+      <c r="DH43">
+        <v>146.4</v>
+      </c>
+      <c r="DI43">
+        <v>106.11</v>
+      </c>
+      <c r="DJ43">
+        <v>118.63</v>
+      </c>
+      <c r="DK43">
+        <v>117</v>
+      </c>
+      <c r="DL43">
+        <v>116.67</v>
+      </c>
+      <c r="DM43">
+        <v>111.37</v>
+      </c>
+      <c r="DN43">
+        <v>111.19</v>
+      </c>
+      <c r="DO43">
+        <v>98.19</v>
+      </c>
+      <c r="DP43">
+        <v>176.89</v>
+      </c>
+      <c r="DQ43">
+        <v>98.91</v>
+      </c>
       <c r="DR43">
         <v>1708.8</v>
       </c>
@@ -15450,42 +15450,6 @@
       <c r="DE44">
         <v>82.2</v>
       </c>
-      <c r="DF44">
-        <v>120.25</v>
-      </c>
-      <c r="DG44">
-        <v>103.62</v>
-      </c>
-      <c r="DH44">
-        <v>141.41999999999999</v>
-      </c>
-      <c r="DI44">
-        <v>109.94</v>
-      </c>
-      <c r="DJ44">
-        <v>119.78</v>
-      </c>
-      <c r="DK44">
-        <v>118.26</v>
-      </c>
-      <c r="DL44">
-        <v>117.65</v>
-      </c>
-      <c r="DM44">
-        <v>111.61</v>
-      </c>
-      <c r="DN44">
-        <v>113.38</v>
-      </c>
-      <c r="DO44">
-        <v>97.76</v>
-      </c>
-      <c r="DP44">
-        <v>178.52</v>
-      </c>
-      <c r="DQ44">
-        <v>98.17</v>
-      </c>
       <c r="DR44">
         <v>1599</v>
       </c>
@@ -16168,6 +16132,42 @@
       <c r="DE46">
         <v>89.5</v>
       </c>
+      <c r="DF46">
+        <v>120.25</v>
+      </c>
+      <c r="DG46">
+        <v>103.62</v>
+      </c>
+      <c r="DH46">
+        <v>141.41999999999999</v>
+      </c>
+      <c r="DI46">
+        <v>109.94</v>
+      </c>
+      <c r="DJ46">
+        <v>119.78</v>
+      </c>
+      <c r="DK46">
+        <v>118.26</v>
+      </c>
+      <c r="DL46">
+        <v>117.65</v>
+      </c>
+      <c r="DM46">
+        <v>111.61</v>
+      </c>
+      <c r="DN46">
+        <v>113.38</v>
+      </c>
+      <c r="DO46">
+        <v>97.76</v>
+      </c>
+      <c r="DP46">
+        <v>178.52</v>
+      </c>
+      <c r="DQ46">
+        <v>98.17</v>
+      </c>
       <c r="DR46">
         <v>2037.9</v>
       </c>
@@ -16509,42 +16509,6 @@
       <c r="DE47">
         <v>97</v>
       </c>
-      <c r="DF47">
-        <v>119.94</v>
-      </c>
-      <c r="DG47">
-        <v>111.01</v>
-      </c>
-      <c r="DH47">
-        <v>144.07</v>
-      </c>
-      <c r="DI47">
-        <v>111.25</v>
-      </c>
-      <c r="DJ47">
-        <v>120.88</v>
-      </c>
-      <c r="DK47">
-        <v>119.41</v>
-      </c>
-      <c r="DL47">
-        <v>119.1</v>
-      </c>
-      <c r="DM47">
-        <v>112.55</v>
-      </c>
-      <c r="DN47">
-        <v>116.34</v>
-      </c>
-      <c r="DO47">
-        <v>101.59</v>
-      </c>
-      <c r="DP47">
-        <v>184.69</v>
-      </c>
-      <c r="DQ47">
-        <v>108.22</v>
-      </c>
       <c r="DR47">
         <v>1914.4</v>
       </c>
@@ -17227,6 +17191,42 @@
       <c r="DE49">
         <v>92</v>
       </c>
+      <c r="DF49">
+        <v>119.94</v>
+      </c>
+      <c r="DG49">
+        <v>111.01</v>
+      </c>
+      <c r="DH49">
+        <v>144.07</v>
+      </c>
+      <c r="DI49">
+        <v>111.25</v>
+      </c>
+      <c r="DJ49">
+        <v>120.88</v>
+      </c>
+      <c r="DK49">
+        <v>119.41</v>
+      </c>
+      <c r="DL49">
+        <v>119.1</v>
+      </c>
+      <c r="DM49">
+        <v>112.55</v>
+      </c>
+      <c r="DN49">
+        <v>116.34</v>
+      </c>
+      <c r="DO49">
+        <v>101.59</v>
+      </c>
+      <c r="DP49">
+        <v>184.69</v>
+      </c>
+      <c r="DQ49">
+        <v>108.22</v>
+      </c>
       <c r="DR49">
         <v>2161.6</v>
       </c>
@@ -17568,42 +17568,6 @@
       <c r="DE50">
         <v>87.8</v>
       </c>
-      <c r="DF50">
-        <v>117.98</v>
-      </c>
-      <c r="DG50">
-        <v>102.7</v>
-      </c>
-      <c r="DH50">
-        <v>145.94</v>
-      </c>
-      <c r="DI50">
-        <v>113.29</v>
-      </c>
-      <c r="DJ50">
-        <v>122.88</v>
-      </c>
-      <c r="DK50">
-        <v>121.77</v>
-      </c>
-      <c r="DL50">
-        <v>121.31</v>
-      </c>
-      <c r="DM50">
-        <v>113.35</v>
-      </c>
-      <c r="DN50">
-        <v>114.1</v>
-      </c>
-      <c r="DO50">
-        <v>105.44</v>
-      </c>
-      <c r="DP50">
-        <v>193.97</v>
-      </c>
-      <c r="DQ50">
-        <v>107.27</v>
-      </c>
       <c r="DR50">
         <v>1450.3</v>
       </c>
@@ -18286,6 +18250,42 @@
       <c r="DE52">
         <v>88.1</v>
       </c>
+      <c r="DF52">
+        <v>117.98</v>
+      </c>
+      <c r="DG52">
+        <v>102.7</v>
+      </c>
+      <c r="DH52">
+        <v>145.94</v>
+      </c>
+      <c r="DI52">
+        <v>113.29</v>
+      </c>
+      <c r="DJ52">
+        <v>122.88</v>
+      </c>
+      <c r="DK52">
+        <v>121.77</v>
+      </c>
+      <c r="DL52">
+        <v>121.31</v>
+      </c>
+      <c r="DM52">
+        <v>113.35</v>
+      </c>
+      <c r="DN52">
+        <v>114.1</v>
+      </c>
+      <c r="DO52">
+        <v>105.44</v>
+      </c>
+      <c r="DP52">
+        <v>193.97</v>
+      </c>
+      <c r="DQ52">
+        <v>107.27</v>
+      </c>
       <c r="DR52">
         <v>2131</v>
       </c>
@@ -18627,42 +18627,6 @@
       <c r="DE53">
         <v>81.5</v>
       </c>
-      <c r="DF53">
-        <v>123.65</v>
-      </c>
-      <c r="DG53">
-        <v>109.95</v>
-      </c>
-      <c r="DH53">
-        <v>149.16</v>
-      </c>
-      <c r="DI53">
-        <v>115.7</v>
-      </c>
-      <c r="DJ53">
-        <v>124.98</v>
-      </c>
-      <c r="DK53">
-        <v>124.17</v>
-      </c>
-      <c r="DL53">
-        <v>123.74</v>
-      </c>
-      <c r="DM53">
-        <v>114.85</v>
-      </c>
-      <c r="DN53">
-        <v>118.31</v>
-      </c>
-      <c r="DO53">
-        <v>109.24</v>
-      </c>
-      <c r="DP53">
-        <v>200.7</v>
-      </c>
-      <c r="DQ53">
-        <v>111.36</v>
-      </c>
       <c r="DR53">
         <v>1451.3</v>
       </c>
@@ -19345,6 +19309,42 @@
       <c r="DE55">
         <v>88</v>
       </c>
+      <c r="DF55">
+        <v>123.65</v>
+      </c>
+      <c r="DG55">
+        <v>109.95</v>
+      </c>
+      <c r="DH55">
+        <v>149.16</v>
+      </c>
+      <c r="DI55">
+        <v>115.7</v>
+      </c>
+      <c r="DJ55">
+        <v>124.98</v>
+      </c>
+      <c r="DK55">
+        <v>124.17</v>
+      </c>
+      <c r="DL55">
+        <v>123.74</v>
+      </c>
+      <c r="DM55">
+        <v>114.85</v>
+      </c>
+      <c r="DN55">
+        <v>118.31</v>
+      </c>
+      <c r="DO55">
+        <v>109.24</v>
+      </c>
+      <c r="DP55">
+        <v>200.7</v>
+      </c>
+      <c r="DQ55">
+        <v>111.36</v>
+      </c>
       <c r="DR55">
         <v>3211</v>
       </c>
@@ -19686,42 +19686,6 @@
       <c r="DE56">
         <v>87.9</v>
       </c>
-      <c r="DF56">
-        <v>128.13999999999999</v>
-      </c>
-      <c r="DG56">
-        <v>117.07</v>
-      </c>
-      <c r="DH56">
-        <v>147.99</v>
-      </c>
-      <c r="DI56">
-        <v>119.95</v>
-      </c>
-      <c r="DJ56">
-        <v>126.2</v>
-      </c>
-      <c r="DK56">
-        <v>125.76</v>
-      </c>
-      <c r="DL56">
-        <v>125.53</v>
-      </c>
-      <c r="DM56">
-        <v>117.12</v>
-      </c>
-      <c r="DN56">
-        <v>118.24</v>
-      </c>
-      <c r="DO56">
-        <v>111.24</v>
-      </c>
-      <c r="DP56">
-        <v>204.11</v>
-      </c>
-      <c r="DQ56">
-        <v>110.97</v>
-      </c>
       <c r="DR56">
         <v>2964.5</v>
       </c>
@@ -20404,6 +20368,42 @@
       <c r="DE58">
         <v>94.8</v>
       </c>
+      <c r="DF58">
+        <v>128.13999999999999</v>
+      </c>
+      <c r="DG58">
+        <v>117.07</v>
+      </c>
+      <c r="DH58">
+        <v>147.99</v>
+      </c>
+      <c r="DI58">
+        <v>119.95</v>
+      </c>
+      <c r="DJ58">
+        <v>126.2</v>
+      </c>
+      <c r="DK58">
+        <v>125.76</v>
+      </c>
+      <c r="DL58">
+        <v>125.53</v>
+      </c>
+      <c r="DM58">
+        <v>117.12</v>
+      </c>
+      <c r="DN58">
+        <v>118.24</v>
+      </c>
+      <c r="DO58">
+        <v>111.24</v>
+      </c>
+      <c r="DP58">
+        <v>204.11</v>
+      </c>
+      <c r="DQ58">
+        <v>110.97</v>
+      </c>
       <c r="DR58">
         <v>2683</v>
       </c>
@@ -20745,42 +20745,6 @@
       <c r="DE59">
         <v>103.8</v>
       </c>
-      <c r="DF59">
-        <v>127.39</v>
-      </c>
-      <c r="DG59">
-        <v>118.02</v>
-      </c>
-      <c r="DH59">
-        <v>146.09</v>
-      </c>
-      <c r="DI59">
-        <v>119.81</v>
-      </c>
-      <c r="DJ59">
-        <v>128.27000000000001</v>
-      </c>
-      <c r="DK59">
-        <v>126.78</v>
-      </c>
-      <c r="DL59">
-        <v>126.62</v>
-      </c>
-      <c r="DM59">
-        <v>119.96</v>
-      </c>
-      <c r="DN59">
-        <v>117.76</v>
-      </c>
-      <c r="DO59">
-        <v>109.07</v>
-      </c>
-      <c r="DP59">
-        <v>209.64</v>
-      </c>
-      <c r="DQ59">
-        <v>114.93</v>
-      </c>
       <c r="DR59">
         <v>2601.4</v>
       </c>
@@ -21463,6 +21427,42 @@
       <c r="DE61">
         <v>101.1</v>
       </c>
+      <c r="DF61">
+        <v>127.39</v>
+      </c>
+      <c r="DG61">
+        <v>118.02</v>
+      </c>
+      <c r="DH61">
+        <v>146.09</v>
+      </c>
+      <c r="DI61">
+        <v>119.81</v>
+      </c>
+      <c r="DJ61">
+        <v>128.27000000000001</v>
+      </c>
+      <c r="DK61">
+        <v>126.78</v>
+      </c>
+      <c r="DL61">
+        <v>126.62</v>
+      </c>
+      <c r="DM61">
+        <v>119.96</v>
+      </c>
+      <c r="DN61">
+        <v>117.76</v>
+      </c>
+      <c r="DO61">
+        <v>109.07</v>
+      </c>
+      <c r="DP61">
+        <v>209.64</v>
+      </c>
+      <c r="DQ61">
+        <v>114.93</v>
+      </c>
       <c r="DR61">
         <v>2784.4</v>
       </c>
@@ -21804,42 +21804,6 @@
       <c r="DE62">
         <v>97.7</v>
       </c>
-      <c r="DF62">
-        <v>122.92</v>
-      </c>
-      <c r="DG62">
-        <v>111.86</v>
-      </c>
-      <c r="DH62">
-        <v>150.77000000000001</v>
-      </c>
-      <c r="DI62">
-        <v>117.88</v>
-      </c>
-      <c r="DJ62">
-        <v>128.22999999999999</v>
-      </c>
-      <c r="DK62">
-        <v>127.23</v>
-      </c>
-      <c r="DL62">
-        <v>126.65</v>
-      </c>
-      <c r="DM62">
-        <v>119.36</v>
-      </c>
-      <c r="DN62">
-        <v>118.35</v>
-      </c>
-      <c r="DO62">
-        <v>108.48</v>
-      </c>
-      <c r="DP62">
-        <v>221.17</v>
-      </c>
-      <c r="DQ62">
-        <v>119.09</v>
-      </c>
       <c r="DR62">
         <v>1818</v>
       </c>
@@ -22522,6 +22486,42 @@
       <c r="DE64">
         <v>89.1</v>
       </c>
+      <c r="DF64">
+        <v>122.92</v>
+      </c>
+      <c r="DG64">
+        <v>111.86</v>
+      </c>
+      <c r="DH64">
+        <v>150.77000000000001</v>
+      </c>
+      <c r="DI64">
+        <v>117.88</v>
+      </c>
+      <c r="DJ64">
+        <v>128.22999999999999</v>
+      </c>
+      <c r="DK64">
+        <v>127.23</v>
+      </c>
+      <c r="DL64">
+        <v>126.65</v>
+      </c>
+      <c r="DM64">
+        <v>119.36</v>
+      </c>
+      <c r="DN64">
+        <v>118.35</v>
+      </c>
+      <c r="DO64">
+        <v>108.48</v>
+      </c>
+      <c r="DP64">
+        <v>221.17</v>
+      </c>
+      <c r="DQ64">
+        <v>119.09</v>
+      </c>
       <c r="DR64">
         <v>2765.4</v>
       </c>
@@ -22863,42 +22863,6 @@
       <c r="DE65">
         <v>86.5</v>
       </c>
-      <c r="DF65">
-        <v>129.18</v>
-      </c>
-      <c r="DG65">
-        <v>119.1</v>
-      </c>
-      <c r="DH65">
-        <v>152.96</v>
-      </c>
-      <c r="DI65">
-        <v>121.89</v>
-      </c>
-      <c r="DJ65">
-        <v>130.06</v>
-      </c>
-      <c r="DK65">
-        <v>129</v>
-      </c>
-      <c r="DL65">
-        <v>128.81</v>
-      </c>
-      <c r="DM65">
-        <v>120.38</v>
-      </c>
-      <c r="DN65">
-        <v>119.01</v>
-      </c>
-      <c r="DO65">
-        <v>111.03</v>
-      </c>
-      <c r="DP65">
-        <v>223.5</v>
-      </c>
-      <c r="DQ65">
-        <v>121.17</v>
-      </c>
       <c r="DR65">
         <v>3235.5</v>
       </c>
@@ -23581,6 +23545,42 @@
       <c r="DE67">
         <v>86.3</v>
       </c>
+      <c r="DF67">
+        <v>129.18</v>
+      </c>
+      <c r="DG67">
+        <v>119.1</v>
+      </c>
+      <c r="DH67">
+        <v>152.96</v>
+      </c>
+      <c r="DI67">
+        <v>121.89</v>
+      </c>
+      <c r="DJ67">
+        <v>130.06</v>
+      </c>
+      <c r="DK67">
+        <v>129</v>
+      </c>
+      <c r="DL67">
+        <v>128.81</v>
+      </c>
+      <c r="DM67">
+        <v>120.38</v>
+      </c>
+      <c r="DN67">
+        <v>119.01</v>
+      </c>
+      <c r="DO67">
+        <v>111.03</v>
+      </c>
+      <c r="DP67">
+        <v>223.5</v>
+      </c>
+      <c r="DQ67">
+        <v>121.17</v>
+      </c>
       <c r="DR67">
         <v>2969.2</v>
       </c>
@@ -23922,42 +23922,6 @@
       <c r="DE68">
         <v>89.8</v>
       </c>
-      <c r="DF68">
-        <v>130.85</v>
-      </c>
-      <c r="DG68">
-        <v>126.11</v>
-      </c>
-      <c r="DH68">
-        <v>144.58000000000001</v>
-      </c>
-      <c r="DI68">
-        <v>118.43</v>
-      </c>
-      <c r="DJ68">
-        <v>130.84</v>
-      </c>
-      <c r="DK68">
-        <v>128.1</v>
-      </c>
-      <c r="DL68">
-        <v>128.25</v>
-      </c>
-      <c r="DM68">
-        <v>122.27</v>
-      </c>
-      <c r="DN68">
-        <v>120.25</v>
-      </c>
-      <c r="DO68">
-        <v>111.93</v>
-      </c>
-      <c r="DP68">
-        <v>226.2</v>
-      </c>
-      <c r="DQ68">
-        <v>119.08</v>
-      </c>
       <c r="DR68">
         <v>4238.2</v>
       </c>
@@ -24640,6 +24604,42 @@
       <c r="DE70">
         <v>93.2</v>
       </c>
+      <c r="DF70">
+        <v>130.85</v>
+      </c>
+      <c r="DG70">
+        <v>126.11</v>
+      </c>
+      <c r="DH70">
+        <v>144.58000000000001</v>
+      </c>
+      <c r="DI70">
+        <v>118.43</v>
+      </c>
+      <c r="DJ70">
+        <v>130.84</v>
+      </c>
+      <c r="DK70">
+        <v>128.1</v>
+      </c>
+      <c r="DL70">
+        <v>128.25</v>
+      </c>
+      <c r="DM70">
+        <v>122.27</v>
+      </c>
+      <c r="DN70">
+        <v>120.25</v>
+      </c>
+      <c r="DO70">
+        <v>111.93</v>
+      </c>
+      <c r="DP70">
+        <v>226.2</v>
+      </c>
+      <c r="DQ70">
+        <v>119.08</v>
+      </c>
       <c r="DR70">
         <v>3526.2</v>
       </c>
@@ -24981,42 +24981,6 @@
       <c r="DE71">
         <v>101.8</v>
       </c>
-      <c r="DF71">
-        <v>130.13</v>
-      </c>
-      <c r="DG71">
-        <v>124.08</v>
-      </c>
-      <c r="DH71">
-        <v>146.43</v>
-      </c>
-      <c r="DI71">
-        <v>119.95</v>
-      </c>
-      <c r="DJ71">
-        <v>131.53</v>
-      </c>
-      <c r="DK71">
-        <v>129.13</v>
-      </c>
-      <c r="DL71">
-        <v>129.38</v>
-      </c>
-      <c r="DM71">
-        <v>123.9</v>
-      </c>
-      <c r="DN71">
-        <v>120.22</v>
-      </c>
-      <c r="DO71">
-        <v>112.1</v>
-      </c>
-      <c r="DP71">
-        <v>231.77</v>
-      </c>
-      <c r="DQ71">
-        <v>124.41</v>
-      </c>
       <c r="DR71">
         <v>2977.2</v>
       </c>
@@ -25699,6 +25663,42 @@
       <c r="DE73">
         <v>104.8</v>
       </c>
+      <c r="DF73">
+        <v>130.13</v>
+      </c>
+      <c r="DG73">
+        <v>124.08</v>
+      </c>
+      <c r="DH73">
+        <v>146.43</v>
+      </c>
+      <c r="DI73">
+        <v>119.95</v>
+      </c>
+      <c r="DJ73">
+        <v>131.53</v>
+      </c>
+      <c r="DK73">
+        <v>129.13</v>
+      </c>
+      <c r="DL73">
+        <v>129.38</v>
+      </c>
+      <c r="DM73">
+        <v>123.9</v>
+      </c>
+      <c r="DN73">
+        <v>120.22</v>
+      </c>
+      <c r="DO73">
+        <v>112.1</v>
+      </c>
+      <c r="DP73">
+        <v>231.77</v>
+      </c>
+      <c r="DQ73">
+        <v>124.41</v>
+      </c>
       <c r="DR73">
         <v>3358.2</v>
       </c>
@@ -26040,42 +26040,6 @@
       <c r="DE74">
         <v>100.1</v>
       </c>
-      <c r="DF74">
-        <v>128.18</v>
-      </c>
-      <c r="DG74">
-        <v>128.41</v>
-      </c>
-      <c r="DH74">
-        <v>151.82</v>
-      </c>
-      <c r="DI74">
-        <v>121.69</v>
-      </c>
-      <c r="DJ74">
-        <v>133.97999999999999</v>
-      </c>
-      <c r="DK74">
-        <v>131.41</v>
-      </c>
-      <c r="DL74">
-        <v>131.19999999999999</v>
-      </c>
-      <c r="DM74">
-        <v>125.26</v>
-      </c>
-      <c r="DN74">
-        <v>121.84</v>
-      </c>
-      <c r="DO74">
-        <v>116.28</v>
-      </c>
-      <c r="DP74">
-        <v>232.99</v>
-      </c>
-      <c r="DQ74">
-        <v>132.87</v>
-      </c>
       <c r="DR74">
         <v>2309.1</v>
       </c>
@@ -26758,6 +26722,42 @@
       <c r="DE76">
         <v>93.9</v>
       </c>
+      <c r="DF76">
+        <v>128.18</v>
+      </c>
+      <c r="DG76">
+        <v>128.41</v>
+      </c>
+      <c r="DH76">
+        <v>151.82</v>
+      </c>
+      <c r="DI76">
+        <v>121.69</v>
+      </c>
+      <c r="DJ76">
+        <v>133.97999999999999</v>
+      </c>
+      <c r="DK76">
+        <v>131.41</v>
+      </c>
+      <c r="DL76">
+        <v>131.19999999999999</v>
+      </c>
+      <c r="DM76">
+        <v>125.26</v>
+      </c>
+      <c r="DN76">
+        <v>121.84</v>
+      </c>
+      <c r="DO76">
+        <v>116.28</v>
+      </c>
+      <c r="DP76">
+        <v>232.99</v>
+      </c>
+      <c r="DQ76">
+        <v>132.87</v>
+      </c>
       <c r="DR76">
         <v>2939.6</v>
       </c>
@@ -27099,42 +27099,6 @@
       <c r="DE77">
         <v>88.6</v>
       </c>
-      <c r="DF77">
-        <v>132.13</v>
-      </c>
-      <c r="DG77">
-        <v>134.68</v>
-      </c>
-      <c r="DH77">
-        <v>152.82</v>
-      </c>
-      <c r="DI77">
-        <v>119.66</v>
-      </c>
-      <c r="DJ77">
-        <v>134.97</v>
-      </c>
-      <c r="DK77">
-        <v>131.80000000000001</v>
-      </c>
-      <c r="DL77">
-        <v>132.44999999999999</v>
-      </c>
-      <c r="DM77">
-        <v>127.37</v>
-      </c>
-      <c r="DN77">
-        <v>121.89</v>
-      </c>
-      <c r="DO77">
-        <v>116.9</v>
-      </c>
-      <c r="DP77">
-        <v>219.13</v>
-      </c>
-      <c r="DQ77">
-        <v>137.55000000000001</v>
-      </c>
       <c r="DR77">
         <v>2364.1999999999998</v>
       </c>
@@ -27817,6 +27781,42 @@
       <c r="DE79">
         <v>88.4</v>
       </c>
+      <c r="DF79">
+        <v>132.13</v>
+      </c>
+      <c r="DG79">
+        <v>134.68</v>
+      </c>
+      <c r="DH79">
+        <v>152.82</v>
+      </c>
+      <c r="DI79">
+        <v>119.66</v>
+      </c>
+      <c r="DJ79">
+        <v>134.97</v>
+      </c>
+      <c r="DK79">
+        <v>131.80000000000001</v>
+      </c>
+      <c r="DL79">
+        <v>132.44999999999999</v>
+      </c>
+      <c r="DM79">
+        <v>127.37</v>
+      </c>
+      <c r="DN79">
+        <v>121.89</v>
+      </c>
+      <c r="DO79">
+        <v>116.9</v>
+      </c>
+      <c r="DP79">
+        <v>219.13</v>
+      </c>
+      <c r="DQ79">
+        <v>137.55000000000001</v>
+      </c>
       <c r="DR79">
         <v>2972.8</v>
       </c>
@@ -28158,42 +28158,6 @@
       <c r="DE80">
         <v>92.8</v>
       </c>
-      <c r="DF80">
-        <v>136.72</v>
-      </c>
-      <c r="DG80">
-        <v>151.72</v>
-      </c>
-      <c r="DH80">
-        <v>160.22</v>
-      </c>
-      <c r="DI80">
-        <v>121.53</v>
-      </c>
-      <c r="DJ80">
-        <v>136.66</v>
-      </c>
-      <c r="DK80">
-        <v>133.61000000000001</v>
-      </c>
-      <c r="DL80">
-        <v>134.15</v>
-      </c>
-      <c r="DM80">
-        <v>128.69</v>
-      </c>
-      <c r="DN80">
-        <v>123.33</v>
-      </c>
-      <c r="DO80">
-        <v>118.14</v>
-      </c>
-      <c r="DP80">
-        <v>250.29</v>
-      </c>
-      <c r="DQ80">
-        <v>147.13</v>
-      </c>
       <c r="DR80">
         <v>4573.5</v>
       </c>
@@ -28876,6 +28840,42 @@
       <c r="DE82">
         <v>97.5</v>
       </c>
+      <c r="DF82">
+        <v>136.72</v>
+      </c>
+      <c r="DG82">
+        <v>151.72</v>
+      </c>
+      <c r="DH82">
+        <v>160.22</v>
+      </c>
+      <c r="DI82">
+        <v>121.53</v>
+      </c>
+      <c r="DJ82">
+        <v>136.66</v>
+      </c>
+      <c r="DK82">
+        <v>133.61000000000001</v>
+      </c>
+      <c r="DL82">
+        <v>134.15</v>
+      </c>
+      <c r="DM82">
+        <v>128.69</v>
+      </c>
+      <c r="DN82">
+        <v>123.33</v>
+      </c>
+      <c r="DO82">
+        <v>118.14</v>
+      </c>
+      <c r="DP82">
+        <v>250.29</v>
+      </c>
+      <c r="DQ82">
+        <v>147.13</v>
+      </c>
       <c r="DR82">
         <v>3474.2</v>
       </c>
@@ -29217,42 +29217,6 @@
       <c r="DE83">
         <v>108.9</v>
       </c>
-      <c r="DF83">
-        <v>136.37</v>
-      </c>
-      <c r="DG83">
-        <v>151.81</v>
-      </c>
-      <c r="DH83">
-        <v>160.82</v>
-      </c>
-      <c r="DI83">
-        <v>124.99</v>
-      </c>
-      <c r="DJ83">
-        <v>137.58000000000001</v>
-      </c>
-      <c r="DK83">
-        <v>135.56</v>
-      </c>
-      <c r="DL83">
-        <v>135.59</v>
-      </c>
-      <c r="DM83">
-        <v>130.30000000000001</v>
-      </c>
-      <c r="DN83">
-        <v>127.85</v>
-      </c>
-      <c r="DO83">
-        <v>121.74</v>
-      </c>
-      <c r="DP83">
-        <v>243.53</v>
-      </c>
-      <c r="DQ83">
-        <v>151.91</v>
-      </c>
       <c r="DR83">
         <v>2826</v>
       </c>
@@ -29935,6 +29899,42 @@
       <c r="DE85">
         <v>101.2</v>
       </c>
+      <c r="DF85">
+        <v>136.37</v>
+      </c>
+      <c r="DG85">
+        <v>151.81</v>
+      </c>
+      <c r="DH85">
+        <v>160.82</v>
+      </c>
+      <c r="DI85">
+        <v>124.99</v>
+      </c>
+      <c r="DJ85">
+        <v>137.58000000000001</v>
+      </c>
+      <c r="DK85">
+        <v>135.56</v>
+      </c>
+      <c r="DL85">
+        <v>135.59</v>
+      </c>
+      <c r="DM85">
+        <v>130.30000000000001</v>
+      </c>
+      <c r="DN85">
+        <v>127.85</v>
+      </c>
+      <c r="DO85">
+        <v>121.74</v>
+      </c>
+      <c r="DP85">
+        <v>243.53</v>
+      </c>
+      <c r="DQ85">
+        <v>151.91</v>
+      </c>
       <c r="DR85">
         <v>4114.3</v>
       </c>
@@ -30276,42 +30276,6 @@
       <c r="DE86">
         <v>104.4</v>
       </c>
-      <c r="DF86">
-        <v>134.84</v>
-      </c>
-      <c r="DG86">
-        <v>153.26</v>
-      </c>
-      <c r="DH86">
-        <v>158.04</v>
-      </c>
-      <c r="DI86">
-        <v>126.42</v>
-      </c>
-      <c r="DJ86">
-        <v>141.38999999999999</v>
-      </c>
-      <c r="DK86">
-        <v>137.96</v>
-      </c>
-      <c r="DL86">
-        <v>138.21</v>
-      </c>
-      <c r="DM86">
-        <v>133.22999999999999</v>
-      </c>
-      <c r="DN86">
-        <v>126.96</v>
-      </c>
-      <c r="DO86">
-        <v>126.09</v>
-      </c>
-      <c r="DP86">
-        <v>248.77</v>
-      </c>
-      <c r="DQ86">
-        <v>159.13999999999999</v>
-      </c>
       <c r="DR86">
         <v>1641.2</v>
       </c>
@@ -30994,6 +30958,42 @@
       <c r="DE88">
         <v>94.2</v>
       </c>
+      <c r="DF88">
+        <v>134.84</v>
+      </c>
+      <c r="DG88">
+        <v>153.26</v>
+      </c>
+      <c r="DH88">
+        <v>158.04</v>
+      </c>
+      <c r="DI88">
+        <v>126.42</v>
+      </c>
+      <c r="DJ88">
+        <v>141.38999999999999</v>
+      </c>
+      <c r="DK88">
+        <v>137.96</v>
+      </c>
+      <c r="DL88">
+        <v>138.21</v>
+      </c>
+      <c r="DM88">
+        <v>133.22999999999999</v>
+      </c>
+      <c r="DN88">
+        <v>126.96</v>
+      </c>
+      <c r="DO88">
+        <v>126.09</v>
+      </c>
+      <c r="DP88">
+        <v>248.77</v>
+      </c>
+      <c r="DQ88">
+        <v>159.13999999999999</v>
+      </c>
       <c r="DR88">
         <v>2109.6</v>
       </c>
@@ -31335,42 +31335,6 @@
       <c r="DE89">
         <v>86</v>
       </c>
-      <c r="DF89">
-        <v>140.77000000000001</v>
-      </c>
-      <c r="DG89">
-        <v>158.36000000000001</v>
-      </c>
-      <c r="DH89">
-        <v>154.16</v>
-      </c>
-      <c r="DI89">
-        <v>130.04</v>
-      </c>
-      <c r="DJ89">
-        <v>142.99</v>
-      </c>
-      <c r="DK89">
-        <v>140.22999999999999</v>
-      </c>
-      <c r="DL89">
-        <v>140.80000000000001</v>
-      </c>
-      <c r="DM89">
-        <v>135.22999999999999</v>
-      </c>
-      <c r="DN89">
-        <v>130.02000000000001</v>
-      </c>
-      <c r="DO89">
-        <v>130.44</v>
-      </c>
-      <c r="DP89">
-        <v>245.32</v>
-      </c>
-      <c r="DQ89">
-        <v>162.31</v>
-      </c>
       <c r="DR89">
         <v>3271.7</v>
       </c>
@@ -32053,6 +32017,42 @@
       <c r="DE91">
         <v>91.9</v>
       </c>
+      <c r="DF91">
+        <v>140.77000000000001</v>
+      </c>
+      <c r="DG91">
+        <v>158.36000000000001</v>
+      </c>
+      <c r="DH91">
+        <v>154.16</v>
+      </c>
+      <c r="DI91">
+        <v>130.04</v>
+      </c>
+      <c r="DJ91">
+        <v>142.99</v>
+      </c>
+      <c r="DK91">
+        <v>140.22999999999999</v>
+      </c>
+      <c r="DL91">
+        <v>140.80000000000001</v>
+      </c>
+      <c r="DM91">
+        <v>135.22999999999999</v>
+      </c>
+      <c r="DN91">
+        <v>130.02000000000001</v>
+      </c>
+      <c r="DO91">
+        <v>130.44</v>
+      </c>
+      <c r="DP91">
+        <v>245.32</v>
+      </c>
+      <c r="DQ91">
+        <v>162.31</v>
+      </c>
       <c r="DR91">
         <v>2332.8000000000002</v>
       </c>
@@ -32394,42 +32394,6 @@
       <c r="DE92">
         <v>96.8</v>
       </c>
-      <c r="DF92">
-        <v>144.75</v>
-      </c>
-      <c r="DG92">
-        <v>181.12</v>
-      </c>
-      <c r="DH92">
-        <v>167.29</v>
-      </c>
-      <c r="DI92">
-        <v>130.30000000000001</v>
-      </c>
-      <c r="DJ92">
-        <v>144.06</v>
-      </c>
-      <c r="DK92">
-        <v>141.41999999999999</v>
-      </c>
-      <c r="DL92">
-        <v>142.15</v>
-      </c>
-      <c r="DM92">
-        <v>136.07</v>
-      </c>
-      <c r="DN92">
-        <v>129.34</v>
-      </c>
-      <c r="DO92">
-        <v>134.69999999999999</v>
-      </c>
-      <c r="DP92">
-        <v>251.42</v>
-      </c>
-      <c r="DQ92">
-        <v>174.83</v>
-      </c>
       <c r="DR92">
         <v>1929.2</v>
       </c>
@@ -33112,6 +33076,42 @@
       <c r="DE94">
         <v>97.9</v>
       </c>
+      <c r="DF94">
+        <v>144.75</v>
+      </c>
+      <c r="DG94">
+        <v>181.12</v>
+      </c>
+      <c r="DH94">
+        <v>167.29</v>
+      </c>
+      <c r="DI94">
+        <v>130.30000000000001</v>
+      </c>
+      <c r="DJ94">
+        <v>144.06</v>
+      </c>
+      <c r="DK94">
+        <v>141.41999999999999</v>
+      </c>
+      <c r="DL94">
+        <v>142.15</v>
+      </c>
+      <c r="DM94">
+        <v>136.07</v>
+      </c>
+      <c r="DN94">
+        <v>129.34</v>
+      </c>
+      <c r="DO94">
+        <v>134.69999999999999</v>
+      </c>
+      <c r="DP94">
+        <v>251.42</v>
+      </c>
+      <c r="DQ94">
+        <v>174.83</v>
+      </c>
       <c r="DR94">
         <v>2261.4</v>
       </c>
@@ -33453,42 +33453,6 @@
       <c r="DE95">
         <v>112.8</v>
       </c>
-      <c r="DF95">
-        <v>145.43</v>
-      </c>
-      <c r="DG95">
-        <v>184.69</v>
-      </c>
-      <c r="DH95">
-        <v>167.17</v>
-      </c>
-      <c r="DI95">
-        <v>131.37</v>
-      </c>
-      <c r="DJ95">
-        <v>146.33000000000001</v>
-      </c>
-      <c r="DK95">
-        <v>143.61000000000001</v>
-      </c>
-      <c r="DL95">
-        <v>144.58000000000001</v>
-      </c>
-      <c r="DM95">
-        <v>139.68</v>
-      </c>
-      <c r="DN95">
-        <v>128.66999999999999</v>
-      </c>
-      <c r="DO95">
-        <v>137.91999999999999</v>
-      </c>
-      <c r="DP95">
-        <v>251.15</v>
-      </c>
-      <c r="DQ95">
-        <v>178.95</v>
-      </c>
       <c r="DR95">
         <v>1944.9</v>
       </c>
@@ -34171,6 +34135,42 @@
       <c r="DE97">
         <v>110.7</v>
       </c>
+      <c r="DF97">
+        <v>145.43</v>
+      </c>
+      <c r="DG97">
+        <v>184.69</v>
+      </c>
+      <c r="DH97">
+        <v>167.17</v>
+      </c>
+      <c r="DI97">
+        <v>131.37</v>
+      </c>
+      <c r="DJ97">
+        <v>146.33000000000001</v>
+      </c>
+      <c r="DK97">
+        <v>143.61000000000001</v>
+      </c>
+      <c r="DL97">
+        <v>144.58000000000001</v>
+      </c>
+      <c r="DM97">
+        <v>139.68</v>
+      </c>
+      <c r="DN97">
+        <v>128.66999999999999</v>
+      </c>
+      <c r="DO97">
+        <v>137.91999999999999</v>
+      </c>
+      <c r="DP97">
+        <v>251.15</v>
+      </c>
+      <c r="DQ97">
+        <v>178.95</v>
+      </c>
       <c r="DR97">
         <v>2353.9</v>
       </c>
@@ -34512,42 +34512,6 @@
       <c r="DE98">
         <v>108.1</v>
       </c>
-      <c r="DF98">
-        <v>143.13999999999999</v>
-      </c>
-      <c r="DG98">
-        <v>176.97</v>
-      </c>
-      <c r="DH98">
-        <v>165.57</v>
-      </c>
-      <c r="DI98">
-        <v>135.03</v>
-      </c>
-      <c r="DJ98">
-        <v>148.75</v>
-      </c>
-      <c r="DK98">
-        <v>146.33000000000001</v>
-      </c>
-      <c r="DL98">
-        <v>146.88999999999999</v>
-      </c>
-      <c r="DM98">
-        <v>142.79</v>
-      </c>
-      <c r="DN98">
-        <v>130.75</v>
-      </c>
-      <c r="DO98">
-        <v>142.82</v>
-      </c>
-      <c r="DP98">
-        <v>248.02</v>
-      </c>
-      <c r="DQ98">
-        <v>186.39</v>
-      </c>
       <c r="DR98">
         <v>-192.6</v>
       </c>
@@ -35230,6 +35194,42 @@
       <c r="DE100">
         <v>96.6</v>
       </c>
+      <c r="DF100">
+        <v>143.13999999999999</v>
+      </c>
+      <c r="DG100">
+        <v>176.97</v>
+      </c>
+      <c r="DH100">
+        <v>165.57</v>
+      </c>
+      <c r="DI100">
+        <v>135.03</v>
+      </c>
+      <c r="DJ100">
+        <v>148.75</v>
+      </c>
+      <c r="DK100">
+        <v>146.33000000000001</v>
+      </c>
+      <c r="DL100">
+        <v>146.88999999999999</v>
+      </c>
+      <c r="DM100">
+        <v>142.79</v>
+      </c>
+      <c r="DN100">
+        <v>130.75</v>
+      </c>
+      <c r="DO100">
+        <v>142.82</v>
+      </c>
+      <c r="DP100">
+        <v>248.02</v>
+      </c>
+      <c r="DQ100">
+        <v>186.39</v>
+      </c>
       <c r="DR100">
         <v>-203.9</v>
       </c>
@@ -35571,42 +35571,6 @@
       <c r="DE101">
         <v>94.4</v>
       </c>
-      <c r="DF101">
-        <v>149.69</v>
-      </c>
-      <c r="DG101">
-        <v>195.71</v>
-      </c>
-      <c r="DH101">
-        <v>171.48</v>
-      </c>
-      <c r="DI101">
-        <v>136.63</v>
-      </c>
-      <c r="DJ101">
-        <v>151.24</v>
-      </c>
-      <c r="DK101">
-        <v>148.03</v>
-      </c>
-      <c r="DL101">
-        <v>149.44</v>
-      </c>
-      <c r="DM101">
-        <v>144.71</v>
-      </c>
-      <c r="DN101">
-        <v>130.59</v>
-      </c>
-      <c r="DO101">
-        <v>147.47999999999999</v>
-      </c>
-      <c r="DP101">
-        <v>257.47000000000003</v>
-      </c>
-      <c r="DQ101">
-        <v>200.72</v>
-      </c>
       <c r="DR101">
         <v>521.29999999999995</v>
       </c>
@@ -36298,6 +36262,42 @@
       <c r="DE103">
         <v>91.2</v>
       </c>
+      <c r="DF103">
+        <v>149.69</v>
+      </c>
+      <c r="DG103">
+        <v>195.71</v>
+      </c>
+      <c r="DH103">
+        <v>171.48</v>
+      </c>
+      <c r="DI103">
+        <v>136.63</v>
+      </c>
+      <c r="DJ103">
+        <v>151.24</v>
+      </c>
+      <c r="DK103">
+        <v>148.03</v>
+      </c>
+      <c r="DL103">
+        <v>149.44</v>
+      </c>
+      <c r="DM103">
+        <v>144.71</v>
+      </c>
+      <c r="DN103">
+        <v>130.59</v>
+      </c>
+      <c r="DO103">
+        <v>147.47999999999999</v>
+      </c>
+      <c r="DP103">
+        <v>257.47000000000003</v>
+      </c>
+      <c r="DQ103">
+        <v>200.72</v>
+      </c>
       <c r="DR103">
         <v>733.2</v>
       </c>
@@ -36657,42 +36657,6 @@
       <c r="DE104">
         <v>96.5</v>
       </c>
-      <c r="DF104">
-        <v>154.86000000000001</v>
-      </c>
-      <c r="DG104">
-        <v>219.98</v>
-      </c>
-      <c r="DH104">
-        <v>175.91</v>
-      </c>
-      <c r="DI104">
-        <v>139.41</v>
-      </c>
-      <c r="DJ104">
-        <v>153</v>
-      </c>
-      <c r="DK104">
-        <v>150.44999999999999</v>
-      </c>
-      <c r="DL104">
-        <v>152.21</v>
-      </c>
-      <c r="DM104">
-        <v>147.4</v>
-      </c>
-      <c r="DN104">
-        <v>134.41</v>
-      </c>
-      <c r="DO104">
-        <v>158.55000000000001</v>
-      </c>
-      <c r="DP104">
-        <v>251.5</v>
-      </c>
-      <c r="DQ104">
-        <v>205.84</v>
-      </c>
       <c r="DR104">
         <v>1674.8</v>
       </c>
@@ -37411,6 +37375,42 @@
       <c r="DE106">
         <v>103.9</v>
       </c>
+      <c r="DF106">
+        <v>154.86000000000001</v>
+      </c>
+      <c r="DG106">
+        <v>219.98</v>
+      </c>
+      <c r="DH106">
+        <v>175.91</v>
+      </c>
+      <c r="DI106">
+        <v>139.41</v>
+      </c>
+      <c r="DJ106">
+        <v>153</v>
+      </c>
+      <c r="DK106">
+        <v>150.44999999999999</v>
+      </c>
+      <c r="DL106">
+        <v>152.21</v>
+      </c>
+      <c r="DM106">
+        <v>147.4</v>
+      </c>
+      <c r="DN106">
+        <v>134.41</v>
+      </c>
+      <c r="DO106">
+        <v>158.55000000000001</v>
+      </c>
+      <c r="DP106">
+        <v>251.5</v>
+      </c>
+      <c r="DQ106">
+        <v>205.84</v>
+      </c>
       <c r="DR106">
         <v>740.2</v>
       </c>
@@ -37770,42 +37770,6 @@
       <c r="DE107">
         <v>110.4</v>
       </c>
-      <c r="DF107">
-        <v>146.91999999999999</v>
-      </c>
-      <c r="DG107">
-        <v>200.11</v>
-      </c>
-      <c r="DH107">
-        <v>168.19</v>
-      </c>
-      <c r="DI107">
-        <v>128.44999999999999</v>
-      </c>
-      <c r="DJ107">
-        <v>149.47</v>
-      </c>
-      <c r="DK107">
-        <v>144.76</v>
-      </c>
-      <c r="DL107">
-        <v>145.97999999999999</v>
-      </c>
-      <c r="DM107">
-        <v>144.65</v>
-      </c>
-      <c r="DN107">
-        <v>129.82</v>
-      </c>
-      <c r="DO107">
-        <v>144.94</v>
-      </c>
-      <c r="DP107">
-        <v>236.96</v>
-      </c>
-      <c r="DQ107">
-        <v>193.3</v>
-      </c>
       <c r="DR107">
         <v>458.1</v>
       </c>
@@ -38524,6 +38488,42 @@
       <c r="DE109">
         <v>100</v>
       </c>
+      <c r="DF109">
+        <v>146.91999999999999</v>
+      </c>
+      <c r="DG109">
+        <v>200.11</v>
+      </c>
+      <c r="DH109">
+        <v>168.19</v>
+      </c>
+      <c r="DI109">
+        <v>128.44999999999999</v>
+      </c>
+      <c r="DJ109">
+        <v>149.47</v>
+      </c>
+      <c r="DK109">
+        <v>144.76</v>
+      </c>
+      <c r="DL109">
+        <v>145.97999999999999</v>
+      </c>
+      <c r="DM109">
+        <v>144.65</v>
+      </c>
+      <c r="DN109">
+        <v>129.82</v>
+      </c>
+      <c r="DO109">
+        <v>144.94</v>
+      </c>
+      <c r="DP109">
+        <v>236.96</v>
+      </c>
+      <c r="DQ109">
+        <v>193.3</v>
+      </c>
       <c r="DR109">
         <v>419.3</v>
       </c>
@@ -38883,42 +38883,6 @@
       <c r="DE110">
         <v>96.1</v>
       </c>
-      <c r="DF110">
-        <v>139.66999999999999</v>
-      </c>
-      <c r="DG110">
-        <v>154.04</v>
-      </c>
-      <c r="DH110">
-        <v>162.94</v>
-      </c>
-      <c r="DI110">
-        <v>121.33</v>
-      </c>
-      <c r="DJ110">
-        <v>150.29</v>
-      </c>
-      <c r="DK110">
-        <v>142.69999999999999</v>
-      </c>
-      <c r="DL110">
-        <v>143.03</v>
-      </c>
-      <c r="DM110">
-        <v>146.01</v>
-      </c>
-      <c r="DN110">
-        <v>134.91999999999999</v>
-      </c>
-      <c r="DO110">
-        <v>128.09</v>
-      </c>
-      <c r="DP110">
-        <v>224.66</v>
-      </c>
-      <c r="DQ110">
-        <v>166.14</v>
-      </c>
       <c r="DR110">
         <v>-1156.2</v>
       </c>
@@ -39637,6 +39601,42 @@
       <c r="DE112">
         <v>91.5</v>
       </c>
+      <c r="DF112">
+        <v>139.66999999999999</v>
+      </c>
+      <c r="DG112">
+        <v>154.04</v>
+      </c>
+      <c r="DH112">
+        <v>162.94</v>
+      </c>
+      <c r="DI112">
+        <v>121.33</v>
+      </c>
+      <c r="DJ112">
+        <v>150.29</v>
+      </c>
+      <c r="DK112">
+        <v>142.69999999999999</v>
+      </c>
+      <c r="DL112">
+        <v>143.03</v>
+      </c>
+      <c r="DM112">
+        <v>146.01</v>
+      </c>
+      <c r="DN112">
+        <v>134.91999999999999</v>
+      </c>
+      <c r="DO112">
+        <v>128.09</v>
+      </c>
+      <c r="DP112">
+        <v>224.66</v>
+      </c>
+      <c r="DQ112">
+        <v>166.14</v>
+      </c>
       <c r="DR112">
         <v>320.5</v>
       </c>
@@ -39996,42 +39996,6 @@
       <c r="DE113">
         <v>78</v>
       </c>
-      <c r="DF113">
-        <v>146.38999999999999</v>
-      </c>
-      <c r="DG113">
-        <v>171.07</v>
-      </c>
-      <c r="DH113">
-        <v>162.02000000000001</v>
-      </c>
-      <c r="DI113">
-        <v>125.74</v>
-      </c>
-      <c r="DJ113">
-        <v>152.30000000000001</v>
-      </c>
-      <c r="DK113">
-        <v>145.46</v>
-      </c>
-      <c r="DL113">
-        <v>146.68</v>
-      </c>
-      <c r="DM113">
-        <v>150.49</v>
-      </c>
-      <c r="DN113">
-        <v>133.31</v>
-      </c>
-      <c r="DO113">
-        <v>137.33000000000001</v>
-      </c>
-      <c r="DP113">
-        <v>230.37</v>
-      </c>
-      <c r="DQ113">
-        <v>174.71</v>
-      </c>
       <c r="DR113">
         <v>2077.8000000000002</v>
       </c>
@@ -40750,6 +40714,42 @@
       <c r="DE115">
         <v>87.6</v>
       </c>
+      <c r="DF115">
+        <v>146.38999999999999</v>
+      </c>
+      <c r="DG115">
+        <v>171.07</v>
+      </c>
+      <c r="DH115">
+        <v>162.02000000000001</v>
+      </c>
+      <c r="DI115">
+        <v>125.74</v>
+      </c>
+      <c r="DJ115">
+        <v>152.30000000000001</v>
+      </c>
+      <c r="DK115">
+        <v>145.46</v>
+      </c>
+      <c r="DL115">
+        <v>146.68</v>
+      </c>
+      <c r="DM115">
+        <v>150.49</v>
+      </c>
+      <c r="DN115">
+        <v>133.31</v>
+      </c>
+      <c r="DO115">
+        <v>137.33000000000001</v>
+      </c>
+      <c r="DP115">
+        <v>230.37</v>
+      </c>
+      <c r="DQ115">
+        <v>174.71</v>
+      </c>
       <c r="DR115">
         <v>2581.8000000000002</v>
       </c>
@@ -41109,42 +41109,6 @@
       <c r="DE116">
         <v>88.3</v>
       </c>
-      <c r="DF116">
-        <v>153.06</v>
-      </c>
-      <c r="DG116">
-        <v>194.54</v>
-      </c>
-      <c r="DH116">
-        <v>163.27000000000001</v>
-      </c>
-      <c r="DI116">
-        <v>130.84</v>
-      </c>
-      <c r="DJ116">
-        <v>155.09</v>
-      </c>
-      <c r="DK116">
-        <v>148.74</v>
-      </c>
-      <c r="DL116">
-        <v>150.32</v>
-      </c>
-      <c r="DM116">
-        <v>153.96</v>
-      </c>
-      <c r="DN116">
-        <v>134.80000000000001</v>
-      </c>
-      <c r="DO116">
-        <v>152.22999999999999</v>
-      </c>
-      <c r="DP116">
-        <v>226.26</v>
-      </c>
-      <c r="DQ116">
-        <v>182.93</v>
-      </c>
       <c r="DR116">
         <v>1344.6</v>
       </c>
@@ -41863,6 +41827,42 @@
       <c r="DE118">
         <v>99.8</v>
       </c>
+      <c r="DF118">
+        <v>153.06</v>
+      </c>
+      <c r="DG118">
+        <v>194.54</v>
+      </c>
+      <c r="DH118">
+        <v>163.27000000000001</v>
+      </c>
+      <c r="DI118">
+        <v>130.84</v>
+      </c>
+      <c r="DJ118">
+        <v>155.09</v>
+      </c>
+      <c r="DK118">
+        <v>148.74</v>
+      </c>
+      <c r="DL118">
+        <v>150.32</v>
+      </c>
+      <c r="DM118">
+        <v>153.96</v>
+      </c>
+      <c r="DN118">
+        <v>134.80000000000001</v>
+      </c>
+      <c r="DO118">
+        <v>152.22999999999999</v>
+      </c>
+      <c r="DP118">
+        <v>226.26</v>
+      </c>
+      <c r="DQ118">
+        <v>182.93</v>
+      </c>
       <c r="DR118">
         <v>-837.9</v>
       </c>
@@ -42222,42 +42222,6 @@
       <c r="DE119">
         <v>110</v>
       </c>
-      <c r="DF119">
-        <v>154.75</v>
-      </c>
-      <c r="DG119">
-        <v>212.87</v>
-      </c>
-      <c r="DH119">
-        <v>170.56</v>
-      </c>
-      <c r="DI119">
-        <v>136.27000000000001</v>
-      </c>
-      <c r="DJ119">
-        <v>157.18</v>
-      </c>
-      <c r="DK119">
-        <v>152.13</v>
-      </c>
-      <c r="DL119">
-        <v>153.77000000000001</v>
-      </c>
-      <c r="DM119">
-        <v>154.69</v>
-      </c>
-      <c r="DN119">
-        <v>137.97</v>
-      </c>
-      <c r="DO119">
-        <v>163.19</v>
-      </c>
-      <c r="DP119">
-        <v>227.81</v>
-      </c>
-      <c r="DQ119">
-        <v>205.04</v>
-      </c>
       <c r="DR119">
         <v>-803.1</v>
       </c>
@@ -42976,6 +42940,42 @@
       <c r="DE121">
         <v>110.6</v>
       </c>
+      <c r="DF121">
+        <v>154.75</v>
+      </c>
+      <c r="DG121">
+        <v>212.87</v>
+      </c>
+      <c r="DH121">
+        <v>170.56</v>
+      </c>
+      <c r="DI121">
+        <v>136.27000000000001</v>
+      </c>
+      <c r="DJ121">
+        <v>157.18</v>
+      </c>
+      <c r="DK121">
+        <v>152.13</v>
+      </c>
+      <c r="DL121">
+        <v>153.77000000000001</v>
+      </c>
+      <c r="DM121">
+        <v>154.69</v>
+      </c>
+      <c r="DN121">
+        <v>137.97</v>
+      </c>
+      <c r="DO121">
+        <v>163.19</v>
+      </c>
+      <c r="DP121">
+        <v>227.81</v>
+      </c>
+      <c r="DQ121">
+        <v>205.04</v>
+      </c>
       <c r="DR121">
         <v>186.1</v>
       </c>
@@ -43335,42 +43335,6 @@
       <c r="DE122">
         <v>106.2</v>
       </c>
-      <c r="DF122">
-        <v>152.53</v>
-      </c>
-      <c r="DG122">
-        <v>213.97</v>
-      </c>
-      <c r="DH122">
-        <v>173.13</v>
-      </c>
-      <c r="DI122">
-        <v>138.59</v>
-      </c>
-      <c r="DJ122">
-        <v>159.58000000000001</v>
-      </c>
-      <c r="DK122">
-        <v>154.54</v>
-      </c>
-      <c r="DL122">
-        <v>156.35</v>
-      </c>
-      <c r="DM122">
-        <v>156.91</v>
-      </c>
-      <c r="DN122">
-        <v>139.08000000000001</v>
-      </c>
-      <c r="DO122">
-        <v>167.09</v>
-      </c>
-      <c r="DP122">
-        <v>253.3</v>
-      </c>
-      <c r="DQ122">
-        <v>231.15</v>
-      </c>
       <c r="DR122">
         <v>-1471.7</v>
       </c>
@@ -44089,6 +44053,42 @@
       <c r="DE124">
         <v>105</v>
       </c>
+      <c r="DF124">
+        <v>152.53</v>
+      </c>
+      <c r="DG124">
+        <v>213.97</v>
+      </c>
+      <c r="DH124">
+        <v>173.13</v>
+      </c>
+      <c r="DI124">
+        <v>138.59</v>
+      </c>
+      <c r="DJ124">
+        <v>159.58000000000001</v>
+      </c>
+      <c r="DK124">
+        <v>154.54</v>
+      </c>
+      <c r="DL124">
+        <v>156.35</v>
+      </c>
+      <c r="DM124">
+        <v>156.91</v>
+      </c>
+      <c r="DN124">
+        <v>139.08000000000001</v>
+      </c>
+      <c r="DO124">
+        <v>167.09</v>
+      </c>
+      <c r="DP124">
+        <v>253.3</v>
+      </c>
+      <c r="DQ124">
+        <v>231.15</v>
+      </c>
       <c r="DR124">
         <v>-2259.3000000000002</v>
       </c>
@@ -44457,42 +44457,6 @@
       <c r="DE125">
         <v>96</v>
       </c>
-      <c r="DF125">
-        <v>158.86000000000001</v>
-      </c>
-      <c r="DG125">
-        <v>232.84</v>
-      </c>
-      <c r="DH125">
-        <v>177.98</v>
-      </c>
-      <c r="DI125">
-        <v>141.82</v>
-      </c>
-      <c r="DJ125">
-        <v>161.44</v>
-      </c>
-      <c r="DK125">
-        <v>157.05000000000001</v>
-      </c>
-      <c r="DL125">
-        <v>158.79</v>
-      </c>
-      <c r="DM125">
-        <v>158.63999999999999</v>
-      </c>
-      <c r="DN125">
-        <v>139.94</v>
-      </c>
-      <c r="DO125">
-        <v>167.4</v>
-      </c>
-      <c r="DP125">
-        <v>248.14</v>
-      </c>
-      <c r="DQ125">
-        <v>236.08</v>
-      </c>
       <c r="DR125">
         <v>-1146.4000000000001</v>
       </c>
@@ -45229,6 +45193,42 @@
       <c r="DE127">
         <v>96.2</v>
       </c>
+      <c r="DF127">
+        <v>158.86000000000001</v>
+      </c>
+      <c r="DG127">
+        <v>232.84</v>
+      </c>
+      <c r="DH127">
+        <v>177.98</v>
+      </c>
+      <c r="DI127">
+        <v>141.82</v>
+      </c>
+      <c r="DJ127">
+        <v>161.44</v>
+      </c>
+      <c r="DK127">
+        <v>157.05000000000001</v>
+      </c>
+      <c r="DL127">
+        <v>158.79</v>
+      </c>
+      <c r="DM127">
+        <v>158.63999999999999</v>
+      </c>
+      <c r="DN127">
+        <v>139.94</v>
+      </c>
+      <c r="DO127">
+        <v>167.4</v>
+      </c>
+      <c r="DP127">
+        <v>248.14</v>
+      </c>
+      <c r="DQ127">
+        <v>236.08</v>
+      </c>
       <c r="DR127">
         <v>-579.9</v>
       </c>
@@ -45597,42 +45597,6 @@
       <c r="DE128">
         <v>101.7</v>
       </c>
-      <c r="DF128">
-        <v>163.63</v>
-      </c>
-      <c r="DG128">
-        <v>267.02999999999997</v>
-      </c>
-      <c r="DH128">
-        <v>173.59</v>
-      </c>
-      <c r="DI128">
-        <v>142.06</v>
-      </c>
-      <c r="DJ128">
-        <v>163.96</v>
-      </c>
-      <c r="DK128">
-        <v>158.4</v>
-      </c>
-      <c r="DL128">
-        <v>160.81</v>
-      </c>
-      <c r="DM128">
-        <v>162.09</v>
-      </c>
-      <c r="DN128">
-        <v>141.32</v>
-      </c>
-      <c r="DO128">
-        <v>175.46</v>
-      </c>
-      <c r="DP128">
-        <v>255.67</v>
-      </c>
-      <c r="DQ128">
-        <v>253.51</v>
-      </c>
       <c r="DR128">
         <v>-1542.7</v>
       </c>
@@ -46369,6 +46333,42 @@
       <c r="DE130">
         <v>104.1</v>
       </c>
+      <c r="DF130">
+        <v>163.63</v>
+      </c>
+      <c r="DG130">
+        <v>267.02999999999997</v>
+      </c>
+      <c r="DH130">
+        <v>173.59</v>
+      </c>
+      <c r="DI130">
+        <v>142.06</v>
+      </c>
+      <c r="DJ130">
+        <v>163.96</v>
+      </c>
+      <c r="DK130">
+        <v>158.4</v>
+      </c>
+      <c r="DL130">
+        <v>160.81</v>
+      </c>
+      <c r="DM130">
+        <v>162.09</v>
+      </c>
+      <c r="DN130">
+        <v>141.32</v>
+      </c>
+      <c r="DO130">
+        <v>175.46</v>
+      </c>
+      <c r="DP130">
+        <v>255.67</v>
+      </c>
+      <c r="DQ130">
+        <v>253.51</v>
+      </c>
       <c r="DR130">
         <v>-2225.1999999999998</v>
       </c>
@@ -46737,42 +46737,6 @@
       <c r="DE131">
         <v>113.4</v>
       </c>
-      <c r="DF131">
-        <v>163.55000000000001</v>
-      </c>
-      <c r="DG131">
-        <v>265.07</v>
-      </c>
-      <c r="DH131">
-        <v>176.76</v>
-      </c>
-      <c r="DI131">
-        <v>144.33000000000001</v>
-      </c>
-      <c r="DJ131">
-        <v>165.62</v>
-      </c>
-      <c r="DK131">
-        <v>160.21</v>
-      </c>
-      <c r="DL131">
-        <v>162.61000000000001</v>
-      </c>
-      <c r="DM131">
-        <v>165.24</v>
-      </c>
-      <c r="DN131">
-        <v>141.84</v>
-      </c>
-      <c r="DO131">
-        <v>175.85</v>
-      </c>
-      <c r="DP131">
-        <v>257.68</v>
-      </c>
-      <c r="DQ131">
-        <v>254.9</v>
-      </c>
       <c r="DR131">
         <v>-1209.7</v>
       </c>
@@ -47509,6 +47473,42 @@
       <c r="DE133">
         <v>105</v>
       </c>
+      <c r="DF133">
+        <v>163.55000000000001</v>
+      </c>
+      <c r="DG133">
+        <v>265.07</v>
+      </c>
+      <c r="DH133">
+        <v>176.76</v>
+      </c>
+      <c r="DI133">
+        <v>144.33000000000001</v>
+      </c>
+      <c r="DJ133">
+        <v>165.62</v>
+      </c>
+      <c r="DK133">
+        <v>160.21</v>
+      </c>
+      <c r="DL133">
+        <v>162.61000000000001</v>
+      </c>
+      <c r="DM133">
+        <v>165.24</v>
+      </c>
+      <c r="DN133">
+        <v>141.84</v>
+      </c>
+      <c r="DO133">
+        <v>175.85</v>
+      </c>
+      <c r="DP133">
+        <v>257.68</v>
+      </c>
+      <c r="DQ133">
+        <v>254.9</v>
+      </c>
       <c r="DR133">
         <v>2395.8000000000002</v>
       </c>
@@ -47877,42 +47877,6 @@
       <c r="DE134">
         <v>99</v>
       </c>
-      <c r="DF134">
-        <v>160.44999999999999</v>
-      </c>
-      <c r="DG134">
-        <v>239.26</v>
-      </c>
-      <c r="DH134">
-        <v>180.72</v>
-      </c>
-      <c r="DI134">
-        <v>145.71</v>
-      </c>
-      <c r="DJ134">
-        <v>167.01</v>
-      </c>
-      <c r="DK134">
-        <v>161.85</v>
-      </c>
-      <c r="DL134">
-        <v>163.72</v>
-      </c>
-      <c r="DM134">
-        <v>166.87</v>
-      </c>
-      <c r="DN134">
-        <v>142.9</v>
-      </c>
-      <c r="DO134">
-        <v>178.34</v>
-      </c>
-      <c r="DP134">
-        <v>263.18</v>
-      </c>
-      <c r="DQ134">
-        <v>257.63</v>
-      </c>
       <c r="DR134">
         <v>-2181.6999999999998</v>
       </c>
@@ -48649,6 +48613,42 @@
       <c r="DE136">
         <v>101</v>
       </c>
+      <c r="DF136">
+        <v>160.44999999999999</v>
+      </c>
+      <c r="DG136">
+        <v>239.26</v>
+      </c>
+      <c r="DH136">
+        <v>180.72</v>
+      </c>
+      <c r="DI136">
+        <v>145.71</v>
+      </c>
+      <c r="DJ136">
+        <v>167.01</v>
+      </c>
+      <c r="DK136">
+        <v>161.85</v>
+      </c>
+      <c r="DL136">
+        <v>163.72</v>
+      </c>
+      <c r="DM136">
+        <v>166.87</v>
+      </c>
+      <c r="DN136">
+        <v>142.9</v>
+      </c>
+      <c r="DO136">
+        <v>178.34</v>
+      </c>
+      <c r="DP136">
+        <v>263.18</v>
+      </c>
+      <c r="DQ136">
+        <v>257.63</v>
+      </c>
       <c r="DR136">
         <v>-1583.2</v>
       </c>
@@ -49017,42 +49017,6 @@
       <c r="DE137">
         <v>89.6</v>
       </c>
-      <c r="DF137">
-        <v>166.33</v>
-      </c>
-      <c r="DG137">
-        <v>265.98</v>
-      </c>
-      <c r="DH137">
-        <v>178.97</v>
-      </c>
-      <c r="DI137">
-        <v>149.09</v>
-      </c>
-      <c r="DJ137">
-        <v>168.47</v>
-      </c>
-      <c r="DK137">
-        <v>163.80000000000001</v>
-      </c>
-      <c r="DL137">
-        <v>166.84</v>
-      </c>
-      <c r="DM137">
-        <v>169.25</v>
-      </c>
-      <c r="DN137">
-        <v>144.33000000000001</v>
-      </c>
-      <c r="DO137">
-        <v>183.21</v>
-      </c>
-      <c r="DP137">
-        <v>265.01</v>
-      </c>
-      <c r="DQ137">
-        <v>268.37</v>
-      </c>
       <c r="DR137">
         <v>-1403.4</v>
       </c>
@@ -49789,6 +49753,42 @@
       <c r="DE139">
         <v>94.5</v>
       </c>
+      <c r="DF139">
+        <v>166.33</v>
+      </c>
+      <c r="DG139">
+        <v>265.98</v>
+      </c>
+      <c r="DH139">
+        <v>178.97</v>
+      </c>
+      <c r="DI139">
+        <v>149.09</v>
+      </c>
+      <c r="DJ139">
+        <v>168.47</v>
+      </c>
+      <c r="DK139">
+        <v>163.80000000000001</v>
+      </c>
+      <c r="DL139">
+        <v>166.84</v>
+      </c>
+      <c r="DM139">
+        <v>169.25</v>
+      </c>
+      <c r="DN139">
+        <v>144.33000000000001</v>
+      </c>
+      <c r="DO139">
+        <v>183.21</v>
+      </c>
+      <c r="DP139">
+        <v>265.01</v>
+      </c>
+      <c r="DQ139">
+        <v>268.37</v>
+      </c>
       <c r="DR139">
         <v>867.8</v>
       </c>
@@ -50157,42 +50157,6 @@
       <c r="DE140">
         <v>94.2</v>
       </c>
-      <c r="DF140">
-        <v>169.41</v>
-      </c>
-      <c r="DG140">
-        <v>282.93</v>
-      </c>
-      <c r="DH140">
-        <v>188.55</v>
-      </c>
-      <c r="DI140">
-        <v>147.82</v>
-      </c>
-      <c r="DJ140">
-        <v>168.56</v>
-      </c>
-      <c r="DK140">
-        <v>163.91</v>
-      </c>
-      <c r="DL140">
-        <v>166.56</v>
-      </c>
-      <c r="DM140">
-        <v>168.6</v>
-      </c>
-      <c r="DN140">
-        <v>143.78</v>
-      </c>
-      <c r="DO140">
-        <v>185.93</v>
-      </c>
-      <c r="DP140">
-        <v>269.61</v>
-      </c>
-      <c r="DQ140">
-        <v>270.61</v>
-      </c>
       <c r="DR140">
         <v>-506.5</v>
       </c>
@@ -50929,6 +50893,42 @@
       <c r="DE142">
         <v>101.5</v>
       </c>
+      <c r="DF142">
+        <v>169.41</v>
+      </c>
+      <c r="DG142">
+        <v>282.93</v>
+      </c>
+      <c r="DH142">
+        <v>188.55</v>
+      </c>
+      <c r="DI142">
+        <v>147.82</v>
+      </c>
+      <c r="DJ142">
+        <v>168.56</v>
+      </c>
+      <c r="DK142">
+        <v>163.91</v>
+      </c>
+      <c r="DL142">
+        <v>166.56</v>
+      </c>
+      <c r="DM142">
+        <v>168.6</v>
+      </c>
+      <c r="DN142">
+        <v>143.78</v>
+      </c>
+      <c r="DO142">
+        <v>185.93</v>
+      </c>
+      <c r="DP142">
+        <v>269.61</v>
+      </c>
+      <c r="DQ142">
+        <v>270.61</v>
+      </c>
       <c r="DR142">
         <v>-121.3</v>
       </c>
@@ -51297,42 +51297,6 @@
       <c r="DE143">
         <v>111</v>
       </c>
-      <c r="DF143">
-        <v>167.75</v>
-      </c>
-      <c r="DG143">
-        <v>282.99</v>
-      </c>
-      <c r="DH143">
-        <v>197.73</v>
-      </c>
-      <c r="DI143">
-        <v>147.5</v>
-      </c>
-      <c r="DJ143">
-        <v>169.09</v>
-      </c>
-      <c r="DK143">
-        <v>164.29</v>
-      </c>
-      <c r="DL143">
-        <v>166.89</v>
-      </c>
-      <c r="DM143">
-        <v>169.32</v>
-      </c>
-      <c r="DN143">
-        <v>143.47999999999999</v>
-      </c>
-      <c r="DO143">
-        <v>185.84</v>
-      </c>
-      <c r="DP143">
-        <v>273.23</v>
-      </c>
-      <c r="DQ143">
-        <v>281.25</v>
-      </c>
       <c r="DR143">
         <v>-1087.3</v>
       </c>
@@ -52069,6 +52033,42 @@
       <c r="DE145">
         <v>101.3</v>
       </c>
+      <c r="DF145">
+        <v>167.75</v>
+      </c>
+      <c r="DG145">
+        <v>282.99</v>
+      </c>
+      <c r="DH145">
+        <v>197.73</v>
+      </c>
+      <c r="DI145">
+        <v>147.5</v>
+      </c>
+      <c r="DJ145">
+        <v>169.09</v>
+      </c>
+      <c r="DK145">
+        <v>164.29</v>
+      </c>
+      <c r="DL145">
+        <v>166.89</v>
+      </c>
+      <c r="DM145">
+        <v>169.32</v>
+      </c>
+      <c r="DN145">
+        <v>143.47999999999999</v>
+      </c>
+      <c r="DO145">
+        <v>185.84</v>
+      </c>
+      <c r="DP145">
+        <v>273.23</v>
+      </c>
+      <c r="DQ145">
+        <v>281.25</v>
+      </c>
       <c r="DR145">
         <v>96.8</v>
       </c>
@@ -52443,42 +52443,6 @@
       <c r="DE146">
         <v>103.4</v>
       </c>
-      <c r="DF146">
-        <v>163.19</v>
-      </c>
-      <c r="DG146">
-        <v>253.93</v>
-      </c>
-      <c r="DH146">
-        <v>158.24</v>
-      </c>
-      <c r="DI146">
-        <v>148.56</v>
-      </c>
-      <c r="DJ146">
-        <v>170.59</v>
-      </c>
-      <c r="DK146">
-        <v>163.95</v>
-      </c>
-      <c r="DL146">
-        <v>166.67</v>
-      </c>
-      <c r="DM146">
-        <v>171.74</v>
-      </c>
-      <c r="DN146">
-        <v>146.25</v>
-      </c>
-      <c r="DO146">
-        <v>184.94</v>
-      </c>
-      <c r="DP146">
-        <v>268.31</v>
-      </c>
-      <c r="DQ146">
-        <v>266.25</v>
-      </c>
       <c r="DR146">
         <v>-4771.2</v>
       </c>
@@ -53227,6 +53191,42 @@
       <c r="DE148">
         <v>98.2</v>
       </c>
+      <c r="DF148">
+        <v>163.19</v>
+      </c>
+      <c r="DG148">
+        <v>253.93</v>
+      </c>
+      <c r="DH148">
+        <v>158.24</v>
+      </c>
+      <c r="DI148">
+        <v>148.56</v>
+      </c>
+      <c r="DJ148">
+        <v>170.59</v>
+      </c>
+      <c r="DK148">
+        <v>163.95</v>
+      </c>
+      <c r="DL148">
+        <v>166.67</v>
+      </c>
+      <c r="DM148">
+        <v>171.74</v>
+      </c>
+      <c r="DN148">
+        <v>146.25</v>
+      </c>
+      <c r="DO148">
+        <v>184.94</v>
+      </c>
+      <c r="DP148">
+        <v>268.31</v>
+      </c>
+      <c r="DQ148">
+        <v>266.25</v>
+      </c>
       <c r="DR148">
         <v>-1356</v>
       </c>
@@ -53616,42 +53616,6 @@
       <c r="DE149">
         <v>87.5</v>
       </c>
-      <c r="DF149">
-        <v>167.97</v>
-      </c>
-      <c r="DG149">
-        <v>271.13</v>
-      </c>
-      <c r="DH149">
-        <v>178.68</v>
-      </c>
-      <c r="DI149">
-        <v>144.43</v>
-      </c>
-      <c r="DJ149">
-        <v>172.54</v>
-      </c>
-      <c r="DK149">
-        <v>165.06</v>
-      </c>
-      <c r="DL149">
-        <v>168.18</v>
-      </c>
-      <c r="DM149">
-        <v>173.1</v>
-      </c>
-      <c r="DN149">
-        <v>147.16</v>
-      </c>
-      <c r="DO149">
-        <v>183.26</v>
-      </c>
-      <c r="DP149">
-        <v>259.52999999999997</v>
-      </c>
-      <c r="DQ149">
-        <v>272.94</v>
-      </c>
       <c r="DR149">
         <v>-2383.1</v>
       </c>
@@ -54430,6 +54394,42 @@
       <c r="DE151">
         <v>91.2</v>
       </c>
+      <c r="DF151">
+        <v>167.97</v>
+      </c>
+      <c r="DG151">
+        <v>271.13</v>
+      </c>
+      <c r="DH151">
+        <v>178.68</v>
+      </c>
+      <c r="DI151">
+        <v>144.43</v>
+      </c>
+      <c r="DJ151">
+        <v>172.54</v>
+      </c>
+      <c r="DK151">
+        <v>165.06</v>
+      </c>
+      <c r="DL151">
+        <v>168.18</v>
+      </c>
+      <c r="DM151">
+        <v>173.1</v>
+      </c>
+      <c r="DN151">
+        <v>147.16</v>
+      </c>
+      <c r="DO151">
+        <v>183.26</v>
+      </c>
+      <c r="DP151">
+        <v>259.52999999999997</v>
+      </c>
+      <c r="DQ151">
+        <v>272.94</v>
+      </c>
       <c r="DR151">
         <v>-2641.9</v>
       </c>
@@ -54819,42 +54819,6 @@
       <c r="DE152">
         <v>93.5</v>
       </c>
-      <c r="DF152">
-        <v>173.63</v>
-      </c>
-      <c r="DG152">
-        <v>266.33</v>
-      </c>
-      <c r="DH152">
-        <v>199.51</v>
-      </c>
-      <c r="DI152">
-        <v>147.06</v>
-      </c>
-      <c r="DJ152">
-        <v>174.14</v>
-      </c>
-      <c r="DK152">
-        <v>167.86</v>
-      </c>
-      <c r="DL152">
-        <v>170.82</v>
-      </c>
-      <c r="DM152">
-        <v>175.41</v>
-      </c>
-      <c r="DN152">
-        <v>146.44</v>
-      </c>
-      <c r="DO152">
-        <v>183.89</v>
-      </c>
-      <c r="DP152">
-        <v>266.64</v>
-      </c>
-      <c r="DQ152">
-        <v>264.16000000000003</v>
-      </c>
       <c r="DR152">
         <v>-727.5</v>
       </c>
@@ -55633,6 +55597,42 @@
       <c r="DE154">
         <v>100</v>
       </c>
+      <c r="DF154">
+        <v>173.63</v>
+      </c>
+      <c r="DG154">
+        <v>266.33</v>
+      </c>
+      <c r="DH154">
+        <v>199.51</v>
+      </c>
+      <c r="DI154">
+        <v>147.06</v>
+      </c>
+      <c r="DJ154">
+        <v>174.14</v>
+      </c>
+      <c r="DK154">
+        <v>167.86</v>
+      </c>
+      <c r="DL154">
+        <v>170.82</v>
+      </c>
+      <c r="DM154">
+        <v>175.41</v>
+      </c>
+      <c r="DN154">
+        <v>146.44</v>
+      </c>
+      <c r="DO154">
+        <v>183.89</v>
+      </c>
+      <c r="DP154">
+        <v>266.64</v>
+      </c>
+      <c r="DQ154">
+        <v>264.16000000000003</v>
+      </c>
       <c r="DR154">
         <v>-967.6</v>
       </c>
@@ -56022,42 +56022,6 @@
       <c r="DE155">
         <v>113.3</v>
       </c>
-      <c r="DF155">
-        <v>171.92</v>
-      </c>
-      <c r="DG155">
-        <v>287.52999999999997</v>
-      </c>
-      <c r="DH155">
-        <v>187.53</v>
-      </c>
-      <c r="DI155">
-        <v>145.88</v>
-      </c>
-      <c r="DJ155">
-        <v>175.44</v>
-      </c>
-      <c r="DK155">
-        <v>167.59</v>
-      </c>
-      <c r="DL155">
-        <v>171.15</v>
-      </c>
-      <c r="DM155">
-        <v>177.27</v>
-      </c>
-      <c r="DN155">
-        <v>147.80000000000001</v>
-      </c>
-      <c r="DO155">
-        <v>187.29</v>
-      </c>
-      <c r="DP155">
-        <v>272.81</v>
-      </c>
-      <c r="DQ155">
-        <v>277.77</v>
-      </c>
       <c r="DR155">
         <v>-2436.9</v>
       </c>
@@ -56836,6 +56800,42 @@
       <c r="DE157">
         <v>109.5</v>
       </c>
+      <c r="DF157">
+        <v>171.92</v>
+      </c>
+      <c r="DG157">
+        <v>287.52999999999997</v>
+      </c>
+      <c r="DH157">
+        <v>187.53</v>
+      </c>
+      <c r="DI157">
+        <v>145.88</v>
+      </c>
+      <c r="DJ157">
+        <v>175.44</v>
+      </c>
+      <c r="DK157">
+        <v>167.59</v>
+      </c>
+      <c r="DL157">
+        <v>171.15</v>
+      </c>
+      <c r="DM157">
+        <v>177.27</v>
+      </c>
+      <c r="DN157">
+        <v>147.80000000000001</v>
+      </c>
+      <c r="DO157">
+        <v>187.29</v>
+      </c>
+      <c r="DP157">
+        <v>272.81</v>
+      </c>
+      <c r="DQ157">
+        <v>277.77</v>
+      </c>
       <c r="DR157">
         <v>-2119.8000000000002</v>
       </c>
@@ -57225,42 +57225,6 @@
       <c r="DE158">
         <v>110</v>
       </c>
-      <c r="DF158">
-        <v>167.63</v>
-      </c>
-      <c r="DG158">
-        <v>271.83</v>
-      </c>
-      <c r="DH158">
-        <v>189.67</v>
-      </c>
-      <c r="DI158">
-        <v>145.88</v>
-      </c>
-      <c r="DJ158">
-        <v>175.2</v>
-      </c>
-      <c r="DK158">
-        <v>168.31</v>
-      </c>
-      <c r="DL158">
-        <v>171.17</v>
-      </c>
-      <c r="DM158">
-        <v>178.17</v>
-      </c>
-      <c r="DN158">
-        <v>146.37</v>
-      </c>
-      <c r="DO158">
-        <v>190.96</v>
-      </c>
-      <c r="DP158">
-        <v>266.19</v>
-      </c>
-      <c r="DQ158">
-        <v>289.01</v>
-      </c>
       <c r="DR158">
         <v>-7763.4</v>
       </c>
@@ -58039,6 +58003,42 @@
       <c r="DE160">
         <v>98.7</v>
       </c>
+      <c r="DF160">
+        <v>167.63</v>
+      </c>
+      <c r="DG160">
+        <v>271.83</v>
+      </c>
+      <c r="DH160">
+        <v>189.67</v>
+      </c>
+      <c r="DI160">
+        <v>145.88</v>
+      </c>
+      <c r="DJ160">
+        <v>175.2</v>
+      </c>
+      <c r="DK160">
+        <v>168.31</v>
+      </c>
+      <c r="DL160">
+        <v>171.17</v>
+      </c>
+      <c r="DM160">
+        <v>178.17</v>
+      </c>
+      <c r="DN160">
+        <v>146.37</v>
+      </c>
+      <c r="DO160">
+        <v>190.96</v>
+      </c>
+      <c r="DP160">
+        <v>266.19</v>
+      </c>
+      <c r="DQ160">
+        <v>289.01</v>
+      </c>
       <c r="DR160">
         <v>-3620.7</v>
       </c>
@@ -58428,42 +58428,6 @@
       <c r="DE161">
         <v>97.8</v>
       </c>
-      <c r="DF161">
-        <v>174.73</v>
-      </c>
-      <c r="DG161">
-        <v>290.57</v>
-      </c>
-      <c r="DH161">
-        <v>196.65</v>
-      </c>
-      <c r="DI161">
-        <v>151.11000000000001</v>
-      </c>
-      <c r="DJ161">
-        <v>177.92</v>
-      </c>
-      <c r="DK161">
-        <v>171.04</v>
-      </c>
-      <c r="DL161">
-        <v>174.72</v>
-      </c>
-      <c r="DM161">
-        <v>180.45</v>
-      </c>
-      <c r="DN161">
-        <v>148.79</v>
-      </c>
-      <c r="DO161">
-        <v>196.99</v>
-      </c>
-      <c r="DP161">
-        <v>272.69</v>
-      </c>
-      <c r="DQ161">
-        <v>292.33999999999997</v>
-      </c>
       <c r="DR161">
         <v>-4920.7</v>
       </c>
@@ -59242,6 +59206,42 @@
       <c r="DE163">
         <v>97.7</v>
       </c>
+      <c r="DF163">
+        <v>174.73</v>
+      </c>
+      <c r="DG163">
+        <v>290.57</v>
+      </c>
+      <c r="DH163">
+        <v>196.65</v>
+      </c>
+      <c r="DI163">
+        <v>151.11000000000001</v>
+      </c>
+      <c r="DJ163">
+        <v>177.92</v>
+      </c>
+      <c r="DK163">
+        <v>171.04</v>
+      </c>
+      <c r="DL163">
+        <v>174.72</v>
+      </c>
+      <c r="DM163">
+        <v>180.45</v>
+      </c>
+      <c r="DN163">
+        <v>148.79</v>
+      </c>
+      <c r="DO163">
+        <v>196.99</v>
+      </c>
+      <c r="DP163">
+        <v>272.69</v>
+      </c>
+      <c r="DQ163">
+        <v>292.33999999999997</v>
+      </c>
       <c r="DR163">
         <v>-1023.3</v>
       </c>
@@ -59631,42 +59631,6 @@
       <c r="DE164">
         <v>103.7</v>
       </c>
-      <c r="DF164">
-        <v>178.42</v>
-      </c>
-      <c r="DG164">
-        <v>298.24</v>
-      </c>
-      <c r="DH164">
-        <v>196.3</v>
-      </c>
-      <c r="DI164">
-        <v>151.36000000000001</v>
-      </c>
-      <c r="DJ164">
-        <v>178.96</v>
-      </c>
-      <c r="DK164">
-        <v>172.19</v>
-      </c>
-      <c r="DL164">
-        <v>175.7</v>
-      </c>
-      <c r="DM164">
-        <v>181.66</v>
-      </c>
-      <c r="DN164">
-        <v>149.88</v>
-      </c>
-      <c r="DO164">
-        <v>198.12</v>
-      </c>
-      <c r="DP164">
-        <v>268.77</v>
-      </c>
-      <c r="DQ164">
-        <v>287.43</v>
-      </c>
       <c r="DR164">
         <v>-6079.6</v>
       </c>
@@ -60445,6 +60409,42 @@
       <c r="DE166">
         <v>102.4</v>
       </c>
+      <c r="DF166">
+        <v>178.42</v>
+      </c>
+      <c r="DG166">
+        <v>298.24</v>
+      </c>
+      <c r="DH166">
+        <v>196.3</v>
+      </c>
+      <c r="DI166">
+        <v>151.36000000000001</v>
+      </c>
+      <c r="DJ166">
+        <v>178.96</v>
+      </c>
+      <c r="DK166">
+        <v>172.19</v>
+      </c>
+      <c r="DL166">
+        <v>175.7</v>
+      </c>
+      <c r="DM166">
+        <v>181.66</v>
+      </c>
+      <c r="DN166">
+        <v>149.88</v>
+      </c>
+      <c r="DO166">
+        <v>198.12</v>
+      </c>
+      <c r="DP166">
+        <v>268.77</v>
+      </c>
+      <c r="DQ166">
+        <v>287.43</v>
+      </c>
       <c r="DR166">
         <v>-2643.6</v>
       </c>
@@ -60834,42 +60834,6 @@
       <c r="DE167">
         <v>110</v>
       </c>
-      <c r="DF167">
-        <v>176.26</v>
-      </c>
-      <c r="DG167">
-        <v>296.39</v>
-      </c>
-      <c r="DH167">
-        <v>197.21</v>
-      </c>
-      <c r="DI167">
-        <v>150.19999999999999</v>
-      </c>
-      <c r="DJ167">
-        <v>179.71</v>
-      </c>
-      <c r="DK167">
-        <v>172.06</v>
-      </c>
-      <c r="DL167">
-        <v>175.6</v>
-      </c>
-      <c r="DM167">
-        <v>181.46</v>
-      </c>
-      <c r="DN167">
-        <v>151.52000000000001</v>
-      </c>
-      <c r="DO167">
-        <v>196.08</v>
-      </c>
-      <c r="DP167">
-        <v>286.92</v>
-      </c>
-      <c r="DQ167">
-        <v>287.29000000000002</v>
-      </c>
       <c r="DR167">
         <v>-5236.5</v>
       </c>
@@ -61648,6 +61612,42 @@
       <c r="DE169">
         <v>108.3</v>
       </c>
+      <c r="DF169">
+        <v>176.26</v>
+      </c>
+      <c r="DG169">
+        <v>296.39</v>
+      </c>
+      <c r="DH169">
+        <v>197.21</v>
+      </c>
+      <c r="DI169">
+        <v>150.19999999999999</v>
+      </c>
+      <c r="DJ169">
+        <v>179.71</v>
+      </c>
+      <c r="DK169">
+        <v>172.06</v>
+      </c>
+      <c r="DL169">
+        <v>175.6</v>
+      </c>
+      <c r="DM169">
+        <v>181.46</v>
+      </c>
+      <c r="DN169">
+        <v>151.52000000000001</v>
+      </c>
+      <c r="DO169">
+        <v>196.08</v>
+      </c>
+      <c r="DP169">
+        <v>286.92</v>
+      </c>
+      <c r="DQ169">
+        <v>287.29000000000002</v>
+      </c>
       <c r="DR169">
         <v>-1612.5</v>
       </c>
@@ -62037,42 +62037,6 @@
       <c r="DE170">
         <v>107.6</v>
       </c>
-      <c r="DF170">
-        <v>173.44</v>
-      </c>
-      <c r="DG170">
-        <v>273.25</v>
-      </c>
-      <c r="DH170">
-        <v>200.11</v>
-      </c>
-      <c r="DI170">
-        <v>150.77000000000001</v>
-      </c>
-      <c r="DJ170">
-        <v>179.95</v>
-      </c>
-      <c r="DK170">
-        <v>172.96</v>
-      </c>
-      <c r="DL170">
-        <v>175.99</v>
-      </c>
-      <c r="DM170">
-        <v>184.47</v>
-      </c>
-      <c r="DN170">
-        <v>149.43</v>
-      </c>
-      <c r="DO170">
-        <v>194.73</v>
-      </c>
-      <c r="DP170">
-        <v>272.72000000000003</v>
-      </c>
-      <c r="DQ170">
-        <v>288.70999999999998</v>
-      </c>
       <c r="DR170">
         <v>-7133.2</v>
       </c>
@@ -62851,6 +62815,42 @@
       <c r="DE172">
         <v>105.7</v>
       </c>
+      <c r="DF172">
+        <v>173.44</v>
+      </c>
+      <c r="DG172">
+        <v>273.25</v>
+      </c>
+      <c r="DH172">
+        <v>200.11</v>
+      </c>
+      <c r="DI172">
+        <v>150.77000000000001</v>
+      </c>
+      <c r="DJ172">
+        <v>179.95</v>
+      </c>
+      <c r="DK172">
+        <v>172.96</v>
+      </c>
+      <c r="DL172">
+        <v>175.99</v>
+      </c>
+      <c r="DM172">
+        <v>184.47</v>
+      </c>
+      <c r="DN172">
+        <v>149.43</v>
+      </c>
+      <c r="DO172">
+        <v>194.73</v>
+      </c>
+      <c r="DP172">
+        <v>272.72000000000003</v>
+      </c>
+      <c r="DQ172">
+        <v>288.70999999999998</v>
+      </c>
       <c r="DR172">
         <v>-3735</v>
       </c>
@@ -63240,42 +63240,6 @@
       <c r="DE173">
         <v>99.1</v>
       </c>
-      <c r="DF173">
-        <v>173.95</v>
-      </c>
-      <c r="DG173">
-        <v>279.58999999999997</v>
-      </c>
-      <c r="DH173">
-        <v>196.64</v>
-      </c>
-      <c r="DI173">
-        <v>146.07</v>
-      </c>
-      <c r="DJ173">
-        <v>179.1</v>
-      </c>
-      <c r="DK173">
-        <v>170.94</v>
-      </c>
-      <c r="DL173">
-        <v>174.7</v>
-      </c>
-      <c r="DM173">
-        <v>183.38</v>
-      </c>
-      <c r="DN173">
-        <v>150.58000000000001</v>
-      </c>
-      <c r="DO173">
-        <v>187.68</v>
-      </c>
-      <c r="DP173">
-        <v>268.14</v>
-      </c>
-      <c r="DQ173">
-        <v>282.07</v>
-      </c>
       <c r="DR173">
         <v>-3986.3</v>
       </c>
@@ -64054,6 +64018,42 @@
       <c r="DE175">
         <v>89.9</v>
       </c>
+      <c r="DF175">
+        <v>173.95</v>
+      </c>
+      <c r="DG175">
+        <v>279.58999999999997</v>
+      </c>
+      <c r="DH175">
+        <v>196.64</v>
+      </c>
+      <c r="DI175">
+        <v>146.07</v>
+      </c>
+      <c r="DJ175">
+        <v>179.1</v>
+      </c>
+      <c r="DK175">
+        <v>170.94</v>
+      </c>
+      <c r="DL175">
+        <v>174.7</v>
+      </c>
+      <c r="DM175">
+        <v>183.38</v>
+      </c>
+      <c r="DN175">
+        <v>150.58000000000001</v>
+      </c>
+      <c r="DO175">
+        <v>187.68</v>
+      </c>
+      <c r="DP175">
+        <v>268.14</v>
+      </c>
+      <c r="DQ175">
+        <v>282.07</v>
+      </c>
       <c r="DR175">
         <v>-1520.1</v>
       </c>
@@ -64443,42 +64443,6 @@
       <c r="DE176">
         <v>101.4</v>
       </c>
-      <c r="DF176">
-        <v>177.27</v>
-      </c>
-      <c r="DG176">
-        <v>301.08</v>
-      </c>
-      <c r="DH176">
-        <v>200.97</v>
-      </c>
-      <c r="DI176">
-        <v>145.68</v>
-      </c>
-      <c r="DJ176">
-        <v>179.65</v>
-      </c>
-      <c r="DK176">
-        <v>171.19</v>
-      </c>
-      <c r="DL176">
-        <v>174.67</v>
-      </c>
-      <c r="DM176">
-        <v>183.69</v>
-      </c>
-      <c r="DN176">
-        <v>151.28</v>
-      </c>
-      <c r="DO176">
-        <v>183.85</v>
-      </c>
-      <c r="DP176">
-        <v>281.51</v>
-      </c>
-      <c r="DQ176">
-        <v>290</v>
-      </c>
       <c r="DR176">
         <v>-3091.5</v>
       </c>
@@ -65257,6 +65221,42 @@
       <c r="DE178">
         <v>107</v>
       </c>
+      <c r="DF178">
+        <v>177.27</v>
+      </c>
+      <c r="DG178">
+        <v>301.08</v>
+      </c>
+      <c r="DH178">
+        <v>200.97</v>
+      </c>
+      <c r="DI178">
+        <v>145.68</v>
+      </c>
+      <c r="DJ178">
+        <v>179.65</v>
+      </c>
+      <c r="DK178">
+        <v>171.19</v>
+      </c>
+      <c r="DL178">
+        <v>174.67</v>
+      </c>
+      <c r="DM178">
+        <v>183.69</v>
+      </c>
+      <c r="DN178">
+        <v>151.28</v>
+      </c>
+      <c r="DO178">
+        <v>183.85</v>
+      </c>
+      <c r="DP178">
+        <v>281.51</v>
+      </c>
+      <c r="DQ178">
+        <v>290</v>
+      </c>
       <c r="DR178">
         <v>-5757.7</v>
       </c>
@@ -65646,42 +65646,6 @@
       <c r="DE179">
         <v>114</v>
       </c>
-      <c r="DF179">
-        <v>175.88</v>
-      </c>
-      <c r="DG179">
-        <v>280.95999999999998</v>
-      </c>
-      <c r="DH179">
-        <v>203.92</v>
-      </c>
-      <c r="DI179">
-        <v>146.97</v>
-      </c>
-      <c r="DJ179">
-        <v>180.13</v>
-      </c>
-      <c r="DK179">
-        <v>171.65</v>
-      </c>
-      <c r="DL179">
-        <v>175.36</v>
-      </c>
-      <c r="DM179">
-        <v>186.44</v>
-      </c>
-      <c r="DN179">
-        <v>150.19</v>
-      </c>
-      <c r="DO179">
-        <v>183.15</v>
-      </c>
-      <c r="DP179">
-        <v>261.45999999999998</v>
-      </c>
-      <c r="DQ179">
-        <v>272.89999999999998</v>
-      </c>
       <c r="DR179">
         <v>-5723.2</v>
       </c>
@@ -66460,6 +66424,42 @@
       <c r="DE181">
         <v>107.2</v>
       </c>
+      <c r="DF181">
+        <v>175.88</v>
+      </c>
+      <c r="DG181">
+        <v>280.95999999999998</v>
+      </c>
+      <c r="DH181">
+        <v>203.92</v>
+      </c>
+      <c r="DI181">
+        <v>146.97</v>
+      </c>
+      <c r="DJ181">
+        <v>180.13</v>
+      </c>
+      <c r="DK181">
+        <v>171.65</v>
+      </c>
+      <c r="DL181">
+        <v>175.36</v>
+      </c>
+      <c r="DM181">
+        <v>186.44</v>
+      </c>
+      <c r="DN181">
+        <v>150.19</v>
+      </c>
+      <c r="DO181">
+        <v>183.15</v>
+      </c>
+      <c r="DP181">
+        <v>261.45999999999998</v>
+      </c>
+      <c r="DQ181">
+        <v>272.89999999999998</v>
+      </c>
       <c r="DR181">
         <v>-4845</v>
       </c>
@@ -66849,42 +66849,6 @@
       <c r="DE182">
         <v>103.2</v>
       </c>
-      <c r="DF182">
-        <v>170.68</v>
-      </c>
-      <c r="DG182">
-        <v>258.61</v>
-      </c>
-      <c r="DH182">
-        <v>211.18</v>
-      </c>
-      <c r="DI182">
-        <v>144.13</v>
-      </c>
-      <c r="DJ182">
-        <v>177.93</v>
-      </c>
-      <c r="DK182">
-        <v>170.07</v>
-      </c>
-      <c r="DL182">
-        <v>173.44</v>
-      </c>
-      <c r="DM182">
-        <v>183.47</v>
-      </c>
-      <c r="DN182">
-        <v>149</v>
-      </c>
-      <c r="DO182">
-        <v>177.51</v>
-      </c>
-      <c r="DP182">
-        <v>279.56</v>
-      </c>
-      <c r="DQ182">
-        <v>272.06</v>
-      </c>
       <c r="DR182">
         <v>-6480.3</v>
       </c>
@@ -67663,6 +67627,42 @@
       <c r="DE184">
         <v>105.7</v>
       </c>
+      <c r="DF184">
+        <v>170.68</v>
+      </c>
+      <c r="DG184">
+        <v>258.61</v>
+      </c>
+      <c r="DH184">
+        <v>211.18</v>
+      </c>
+      <c r="DI184">
+        <v>144.13</v>
+      </c>
+      <c r="DJ184">
+        <v>177.93</v>
+      </c>
+      <c r="DK184">
+        <v>170.07</v>
+      </c>
+      <c r="DL184">
+        <v>173.44</v>
+      </c>
+      <c r="DM184">
+        <v>183.47</v>
+      </c>
+      <c r="DN184">
+        <v>149</v>
+      </c>
+      <c r="DO184">
+        <v>177.51</v>
+      </c>
+      <c r="DP184">
+        <v>279.56</v>
+      </c>
+      <c r="DQ184">
+        <v>272.06</v>
+      </c>
       <c r="DR184">
         <v>-3621</v>
       </c>
@@ -68052,42 +68052,6 @@
       <c r="DE185">
         <v>94.1</v>
       </c>
-      <c r="DF185">
-        <v>169.24</v>
-      </c>
-      <c r="DG185">
-        <v>248.31</v>
-      </c>
-      <c r="DH185">
-        <v>204.5</v>
-      </c>
-      <c r="DI185">
-        <v>139.25</v>
-      </c>
-      <c r="DJ185">
-        <v>175.29</v>
-      </c>
-      <c r="DK185">
-        <v>166.84</v>
-      </c>
-      <c r="DL185">
-        <v>169.52</v>
-      </c>
-      <c r="DM185">
-        <v>179.68</v>
-      </c>
-      <c r="DN185">
-        <v>148.19</v>
-      </c>
-      <c r="DO185">
-        <v>162</v>
-      </c>
-      <c r="DP185">
-        <v>289.33999999999997</v>
-      </c>
-      <c r="DQ185">
-        <v>251.73</v>
-      </c>
       <c r="DR185">
         <v>-3186.4</v>
       </c>
@@ -68866,6 +68830,42 @@
       <c r="DE187">
         <v>95</v>
       </c>
+      <c r="DF187">
+        <v>169.24</v>
+      </c>
+      <c r="DG187">
+        <v>248.31</v>
+      </c>
+      <c r="DH187">
+        <v>204.5</v>
+      </c>
+      <c r="DI187">
+        <v>139.25</v>
+      </c>
+      <c r="DJ187">
+        <v>175.29</v>
+      </c>
+      <c r="DK187">
+        <v>166.84</v>
+      </c>
+      <c r="DL187">
+        <v>169.52</v>
+      </c>
+      <c r="DM187">
+        <v>179.68</v>
+      </c>
+      <c r="DN187">
+        <v>148.19</v>
+      </c>
+      <c r="DO187">
+        <v>162</v>
+      </c>
+      <c r="DP187">
+        <v>289.33999999999997</v>
+      </c>
+      <c r="DQ187">
+        <v>251.73</v>
+      </c>
       <c r="DR187">
         <v>916.7</v>
       </c>
@@ -69255,42 +69255,6 @@
       <c r="DE188">
         <v>101.3</v>
       </c>
-      <c r="DF188">
-        <v>169.72</v>
-      </c>
-      <c r="DG188">
-        <v>241.32</v>
-      </c>
-      <c r="DH188">
-        <v>203.39</v>
-      </c>
-      <c r="DI188">
-        <v>136.93</v>
-      </c>
-      <c r="DJ188">
-        <v>173.44</v>
-      </c>
-      <c r="DK188">
-        <v>164.64</v>
-      </c>
-      <c r="DL188">
-        <v>167.22</v>
-      </c>
-      <c r="DM188">
-        <v>176.44</v>
-      </c>
-      <c r="DN188">
-        <v>148.47</v>
-      </c>
-      <c r="DO188">
-        <v>156.41999999999999</v>
-      </c>
-      <c r="DP188">
-        <v>288.64</v>
-      </c>
-      <c r="DQ188">
-        <v>231.67</v>
-      </c>
       <c r="DR188">
         <v>-711.2</v>
       </c>
@@ -70069,6 +70033,42 @@
       <c r="DE190">
         <v>102.6</v>
       </c>
+      <c r="DF190">
+        <v>169.72</v>
+      </c>
+      <c r="DG190">
+        <v>241.32</v>
+      </c>
+      <c r="DH190">
+        <v>203.39</v>
+      </c>
+      <c r="DI190">
+        <v>136.93</v>
+      </c>
+      <c r="DJ190">
+        <v>173.44</v>
+      </c>
+      <c r="DK190">
+        <v>164.64</v>
+      </c>
+      <c r="DL190">
+        <v>167.22</v>
+      </c>
+      <c r="DM190">
+        <v>176.44</v>
+      </c>
+      <c r="DN190">
+        <v>148.47</v>
+      </c>
+      <c r="DO190">
+        <v>156.41999999999999</v>
+      </c>
+      <c r="DP190">
+        <v>288.64</v>
+      </c>
+      <c r="DQ190">
+        <v>231.67</v>
+      </c>
       <c r="DR190">
         <v>-262.8</v>
       </c>
@@ -70458,42 +70458,6 @@
       <c r="DE191">
         <v>110.3</v>
       </c>
-      <c r="DF191">
-        <v>166.06</v>
-      </c>
-      <c r="DG191">
-        <v>225.6</v>
-      </c>
-      <c r="DH191">
-        <v>206.59</v>
-      </c>
-      <c r="DI191">
-        <v>135.13</v>
-      </c>
-      <c r="DJ191">
-        <v>172.52</v>
-      </c>
-      <c r="DK191">
-        <v>163.51</v>
-      </c>
-      <c r="DL191">
-        <v>165.65</v>
-      </c>
-      <c r="DM191">
-        <v>174.98</v>
-      </c>
-      <c r="DN191">
-        <v>147.24</v>
-      </c>
-      <c r="DO191">
-        <v>149.22999999999999</v>
-      </c>
-      <c r="DP191">
-        <v>299.29000000000002</v>
-      </c>
-      <c r="DQ191">
-        <v>219.46</v>
-      </c>
       <c r="DR191">
         <v>-1045.8</v>
       </c>
@@ -71272,6 +71236,42 @@
       <c r="DE193">
         <v>101.8</v>
       </c>
+      <c r="DF193">
+        <v>166.06</v>
+      </c>
+      <c r="DG193">
+        <v>225.6</v>
+      </c>
+      <c r="DH193">
+        <v>206.59</v>
+      </c>
+      <c r="DI193">
+        <v>135.13</v>
+      </c>
+      <c r="DJ193">
+        <v>172.52</v>
+      </c>
+      <c r="DK193">
+        <v>163.51</v>
+      </c>
+      <c r="DL193">
+        <v>165.65</v>
+      </c>
+      <c r="DM193">
+        <v>174.98</v>
+      </c>
+      <c r="DN193">
+        <v>147.24</v>
+      </c>
+      <c r="DO193">
+        <v>149.22999999999999</v>
+      </c>
+      <c r="DP193">
+        <v>299.29000000000002</v>
+      </c>
+      <c r="DQ193">
+        <v>219.46</v>
+      </c>
       <c r="DR193">
         <v>3553.1</v>
       </c>
@@ -71661,42 +71661,6 @@
       <c r="DE194">
         <v>99.9</v>
       </c>
-      <c r="DF194">
-        <v>161.72</v>
-      </c>
-      <c r="DG194">
-        <v>203.57</v>
-      </c>
-      <c r="DH194">
-        <v>195.21</v>
-      </c>
-      <c r="DI194">
-        <v>134.34</v>
-      </c>
-      <c r="DJ194">
-        <v>171.78</v>
-      </c>
-      <c r="DK194">
-        <v>162.68</v>
-      </c>
-      <c r="DL194">
-        <v>164.49</v>
-      </c>
-      <c r="DM194">
-        <v>172.7</v>
-      </c>
-      <c r="DN194">
-        <v>148.44999999999999</v>
-      </c>
-      <c r="DO194">
-        <v>147.41999999999999</v>
-      </c>
-      <c r="DP194">
-        <v>301.43</v>
-      </c>
-      <c r="DQ194">
-        <v>209.43</v>
-      </c>
       <c r="DR194">
         <v>-736</v>
       </c>
@@ -72475,6 +72439,42 @@
       <c r="DE196">
         <v>98.4</v>
       </c>
+      <c r="DF196">
+        <v>161.72</v>
+      </c>
+      <c r="DG196">
+        <v>203.57</v>
+      </c>
+      <c r="DH196">
+        <v>195.21</v>
+      </c>
+      <c r="DI196">
+        <v>134.34</v>
+      </c>
+      <c r="DJ196">
+        <v>171.78</v>
+      </c>
+      <c r="DK196">
+        <v>162.68</v>
+      </c>
+      <c r="DL196">
+        <v>164.49</v>
+      </c>
+      <c r="DM196">
+        <v>172.7</v>
+      </c>
+      <c r="DN196">
+        <v>148.44999999999999</v>
+      </c>
+      <c r="DO196">
+        <v>147.41999999999999</v>
+      </c>
+      <c r="DP196">
+        <v>301.43</v>
+      </c>
+      <c r="DQ196">
+        <v>209.43</v>
+      </c>
       <c r="DR196">
         <v>1337.3</v>
       </c>
@@ -72864,42 +72864,6 @@
       <c r="DE197">
         <v>91.6</v>
       </c>
-      <c r="DF197">
-        <v>163.49</v>
-      </c>
-      <c r="DG197">
-        <v>223.06</v>
-      </c>
-      <c r="DH197">
-        <v>195.85</v>
-      </c>
-      <c r="DI197">
-        <v>134.85</v>
-      </c>
-      <c r="DJ197">
-        <v>170.78</v>
-      </c>
-      <c r="DK197">
-        <v>161.65</v>
-      </c>
-      <c r="DL197">
-        <v>163.55000000000001</v>
-      </c>
-      <c r="DM197">
-        <v>170.85</v>
-      </c>
-      <c r="DN197">
-        <v>148.55000000000001</v>
-      </c>
-      <c r="DO197">
-        <v>147.22</v>
-      </c>
-      <c r="DP197">
-        <v>299.86</v>
-      </c>
-      <c r="DQ197">
-        <v>227.12</v>
-      </c>
       <c r="DR197">
         <v>2108.3000000000002</v>
       </c>
@@ -73678,6 +73642,42 @@
       <c r="DE199">
         <v>92.5</v>
       </c>
+      <c r="DF199">
+        <v>163.49</v>
+      </c>
+      <c r="DG199">
+        <v>223.06</v>
+      </c>
+      <c r="DH199">
+        <v>195.85</v>
+      </c>
+      <c r="DI199">
+        <v>134.85</v>
+      </c>
+      <c r="DJ199">
+        <v>170.78</v>
+      </c>
+      <c r="DK199">
+        <v>161.65</v>
+      </c>
+      <c r="DL199">
+        <v>163.55000000000001</v>
+      </c>
+      <c r="DM199">
+        <v>170.85</v>
+      </c>
+      <c r="DN199">
+        <v>148.55000000000001</v>
+      </c>
+      <c r="DO199">
+        <v>147.22</v>
+      </c>
+      <c r="DP199">
+        <v>299.86</v>
+      </c>
+      <c r="DQ199">
+        <v>227.12</v>
+      </c>
       <c r="DR199">
         <v>143.5</v>
       </c>
@@ -74067,42 +74067,6 @@
       <c r="DE200">
         <v>94.1</v>
       </c>
-      <c r="DF200">
-        <v>165.17</v>
-      </c>
-      <c r="DG200">
-        <v>225.02</v>
-      </c>
-      <c r="DH200">
-        <v>198.24</v>
-      </c>
-      <c r="DI200">
-        <v>132.88999999999999</v>
-      </c>
-      <c r="DJ200">
-        <v>169.79</v>
-      </c>
-      <c r="DK200">
-        <v>160.82</v>
-      </c>
-      <c r="DL200">
-        <v>162.74</v>
-      </c>
-      <c r="DM200">
-        <v>170.28</v>
-      </c>
-      <c r="DN200">
-        <v>147.91999999999999</v>
-      </c>
-      <c r="DO200">
-        <v>143</v>
-      </c>
-      <c r="DP200">
-        <v>289</v>
-      </c>
-      <c r="DQ200">
-        <v>215.5</v>
-      </c>
       <c r="DR200">
         <v>2028.9</v>
       </c>
@@ -74881,6 +74845,42 @@
       <c r="DE202">
         <v>100.9</v>
       </c>
+      <c r="DF202">
+        <v>165.17</v>
+      </c>
+      <c r="DG202">
+        <v>225.02</v>
+      </c>
+      <c r="DH202">
+        <v>198.24</v>
+      </c>
+      <c r="DI202">
+        <v>132.88999999999999</v>
+      </c>
+      <c r="DJ202">
+        <v>169.79</v>
+      </c>
+      <c r="DK202">
+        <v>160.82</v>
+      </c>
+      <c r="DL202">
+        <v>162.74</v>
+      </c>
+      <c r="DM202">
+        <v>170.28</v>
+      </c>
+      <c r="DN202">
+        <v>147.91999999999999</v>
+      </c>
+      <c r="DO202">
+        <v>143</v>
+      </c>
+      <c r="DP202">
+        <v>289</v>
+      </c>
+      <c r="DQ202">
+        <v>215.5</v>
+      </c>
       <c r="DR202">
         <v>1006</v>
       </c>
@@ -75270,42 +75270,6 @@
       <c r="DE203">
         <v>108.5</v>
       </c>
-      <c r="DF203">
-        <v>161.91999999999999</v>
-      </c>
-      <c r="DG203">
-        <v>223.23</v>
-      </c>
-      <c r="DH203">
-        <v>203.57</v>
-      </c>
-      <c r="DI203">
-        <v>131.31</v>
-      </c>
-      <c r="DJ203">
-        <v>168.6</v>
-      </c>
-      <c r="DK203">
-        <v>159.91</v>
-      </c>
-      <c r="DL203">
-        <v>161.62</v>
-      </c>
-      <c r="DM203">
-        <v>169.59</v>
-      </c>
-      <c r="DN203">
-        <v>147.71</v>
-      </c>
-      <c r="DO203">
-        <v>140.59</v>
-      </c>
-      <c r="DP203">
-        <v>287.83</v>
-      </c>
-      <c r="DQ203">
-        <v>223.63</v>
-      </c>
       <c r="DR203">
         <v>-666.1</v>
       </c>
@@ -76084,6 +76048,42 @@
       <c r="DE205">
         <v>101.5</v>
       </c>
+      <c r="DF205">
+        <v>161.91999999999999</v>
+      </c>
+      <c r="DG205">
+        <v>223.23</v>
+      </c>
+      <c r="DH205">
+        <v>203.57</v>
+      </c>
+      <c r="DI205">
+        <v>131.31</v>
+      </c>
+      <c r="DJ205">
+        <v>168.6</v>
+      </c>
+      <c r="DK205">
+        <v>159.91</v>
+      </c>
+      <c r="DL205">
+        <v>161.62</v>
+      </c>
+      <c r="DM205">
+        <v>169.59</v>
+      </c>
+      <c r="DN205">
+        <v>147.71</v>
+      </c>
+      <c r="DO205">
+        <v>140.59</v>
+      </c>
+      <c r="DP205">
+        <v>287.83</v>
+      </c>
+      <c r="DQ205">
+        <v>223.63</v>
+      </c>
       <c r="DR205">
         <v>821.7</v>
       </c>
@@ -76473,42 +76473,6 @@
       <c r="DE206">
         <v>97.8</v>
       </c>
-      <c r="DF206">
-        <v>161.71</v>
-      </c>
-      <c r="DG206">
-        <v>223.6</v>
-      </c>
-      <c r="DH206">
-        <v>229.75</v>
-      </c>
-      <c r="DI206">
-        <v>132.86000000000001</v>
-      </c>
-      <c r="DJ206">
-        <v>169.16</v>
-      </c>
-      <c r="DK206">
-        <v>162.22</v>
-      </c>
-      <c r="DL206">
-        <v>163.72999999999999</v>
-      </c>
-      <c r="DM206">
-        <v>169.88</v>
-      </c>
-      <c r="DN206">
-        <v>147.6</v>
-      </c>
-      <c r="DO206">
-        <v>139.72999999999999</v>
-      </c>
-      <c r="DP206">
-        <v>304.17</v>
-      </c>
-      <c r="DQ206">
-        <v>227.93</v>
-      </c>
       <c r="DR206">
         <v>80.900000000000006</v>
       </c>
@@ -77287,6 +77251,42 @@
       <c r="DE208">
         <v>96.8</v>
       </c>
+      <c r="DF208">
+        <v>161.71</v>
+      </c>
+      <c r="DG208">
+        <v>223.6</v>
+      </c>
+      <c r="DH208">
+        <v>229.75</v>
+      </c>
+      <c r="DI208">
+        <v>132.86000000000001</v>
+      </c>
+      <c r="DJ208">
+        <v>169.16</v>
+      </c>
+      <c r="DK208">
+        <v>162.22</v>
+      </c>
+      <c r="DL208">
+        <v>163.72999999999999</v>
+      </c>
+      <c r="DM208">
+        <v>169.88</v>
+      </c>
+      <c r="DN208">
+        <v>147.6</v>
+      </c>
+      <c r="DO208">
+        <v>139.72999999999999</v>
+      </c>
+      <c r="DP208">
+        <v>304.17</v>
+      </c>
+      <c r="DQ208">
+        <v>227.93</v>
+      </c>
       <c r="DR208">
         <v>4413.6000000000004</v>
       </c>
@@ -77676,42 +77676,6 @@
       <c r="DE209">
         <v>88.2</v>
       </c>
-      <c r="DF209">
-        <v>164.17</v>
-      </c>
-      <c r="DG209">
-        <v>215.97</v>
-      </c>
-      <c r="DH209">
-        <v>224.5</v>
-      </c>
-      <c r="DI209">
-        <v>132.27000000000001</v>
-      </c>
-      <c r="DJ209">
-        <v>170.43</v>
-      </c>
-      <c r="DK209">
-        <v>162.91</v>
-      </c>
-      <c r="DL209">
-        <v>164.84</v>
-      </c>
-      <c r="DM209">
-        <v>171.94</v>
-      </c>
-      <c r="DN209">
-        <v>147.38999999999999</v>
-      </c>
-      <c r="DO209">
-        <v>139.72</v>
-      </c>
-      <c r="DP209">
-        <v>307.7</v>
-      </c>
-      <c r="DQ209">
-        <v>220.11</v>
-      </c>
       <c r="DR209">
         <v>4227.6000000000004</v>
       </c>
@@ -78490,6 +78454,42 @@
       <c r="DE211">
         <v>87.9</v>
       </c>
+      <c r="DF211">
+        <v>164.17</v>
+      </c>
+      <c r="DG211">
+        <v>215.97</v>
+      </c>
+      <c r="DH211">
+        <v>224.5</v>
+      </c>
+      <c r="DI211">
+        <v>132.27000000000001</v>
+      </c>
+      <c r="DJ211">
+        <v>170.43</v>
+      </c>
+      <c r="DK211">
+        <v>162.91</v>
+      </c>
+      <c r="DL211">
+        <v>164.84</v>
+      </c>
+      <c r="DM211">
+        <v>171.94</v>
+      </c>
+      <c r="DN211">
+        <v>147.38999999999999</v>
+      </c>
+      <c r="DO211">
+        <v>139.72</v>
+      </c>
+      <c r="DP211">
+        <v>307.7</v>
+      </c>
+      <c r="DQ211">
+        <v>220.11</v>
+      </c>
       <c r="DR211">
         <v>3766.4</v>
       </c>
@@ -78879,42 +78879,6 @@
       <c r="DE212">
         <v>96.8</v>
       </c>
-      <c r="DF212">
-        <v>167.51</v>
-      </c>
-      <c r="DG212">
-        <v>237.76</v>
-      </c>
-      <c r="DH212">
-        <v>217.68</v>
-      </c>
-      <c r="DI212">
-        <v>133.34</v>
-      </c>
-      <c r="DJ212">
-        <v>171.5</v>
-      </c>
-      <c r="DK212">
-        <v>162.86000000000001</v>
-      </c>
-      <c r="DL212">
-        <v>165.08</v>
-      </c>
-      <c r="DM212">
-        <v>173.96</v>
-      </c>
-      <c r="DN212">
-        <v>147.08000000000001</v>
-      </c>
-      <c r="DO212">
-        <v>142.01</v>
-      </c>
-      <c r="DP212">
-        <v>320.19</v>
-      </c>
-      <c r="DQ212">
-        <v>234.74</v>
-      </c>
       <c r="DR212">
         <v>3047.8</v>
       </c>
@@ -79689,6 +79653,42 @@
       </c>
       <c r="DE214">
         <v>100.4</v>
+      </c>
+      <c r="DF214">
+        <v>167.51</v>
+      </c>
+      <c r="DG214">
+        <v>237.76</v>
+      </c>
+      <c r="DH214">
+        <v>217.68</v>
+      </c>
+      <c r="DI214">
+        <v>133.34</v>
+      </c>
+      <c r="DJ214">
+        <v>171.5</v>
+      </c>
+      <c r="DK214">
+        <v>162.86000000000001</v>
+      </c>
+      <c r="DL214">
+        <v>165.08</v>
+      </c>
+      <c r="DM214">
+        <v>173.96</v>
+      </c>
+      <c r="DN214">
+        <v>147.08000000000001</v>
+      </c>
+      <c r="DO214">
+        <v>142.01</v>
+      </c>
+      <c r="DP214">
+        <v>320.19</v>
+      </c>
+      <c r="DQ214">
+        <v>234.74</v>
       </c>
       <c r="DR214">
         <v>2042.4</v>
@@ -80997,8 +80997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -84555,7 +84555,7 @@
         <v>177</v>
       </c>
       <c r="E112" s="7">
-        <v>34700</v>
+        <v>34789</v>
       </c>
       <c r="F112" t="s">
         <v>186</v>
@@ -84587,7 +84587,7 @@
         <v>177</v>
       </c>
       <c r="E113" s="7">
-        <v>34700</v>
+        <v>34789</v>
       </c>
       <c r="F113" t="s">
         <v>185</v>
@@ -84619,7 +84619,7 @@
         <v>177</v>
       </c>
       <c r="E114" s="7">
-        <v>34700</v>
+        <v>34789</v>
       </c>
       <c r="F114" t="s">
         <v>184</v>
@@ -84651,7 +84651,7 @@
         <v>177</v>
       </c>
       <c r="E115" s="7">
-        <v>34700</v>
+        <v>34789</v>
       </c>
       <c r="F115" t="s">
         <v>183</v>
@@ -84683,7 +84683,7 @@
         <v>177</v>
       </c>
       <c r="E116" s="7">
-        <v>34700</v>
+        <v>34789</v>
       </c>
       <c r="F116" t="s">
         <v>182</v>
@@ -84715,7 +84715,7 @@
         <v>177</v>
       </c>
       <c r="E117" s="7">
-        <v>34700</v>
+        <v>34789</v>
       </c>
       <c r="F117" t="s">
         <v>181</v>
@@ -84747,7 +84747,7 @@
         <v>177</v>
       </c>
       <c r="E118" s="7">
-        <v>34700</v>
+        <v>34789</v>
       </c>
       <c r="F118" t="s">
         <v>180</v>
@@ -84779,7 +84779,7 @@
         <v>177</v>
       </c>
       <c r="E119" s="7">
-        <v>34700</v>
+        <v>34789</v>
       </c>
       <c r="F119" t="s">
         <v>179</v>
@@ -84811,7 +84811,7 @@
         <v>177</v>
       </c>
       <c r="E120" s="7">
-        <v>34700</v>
+        <v>34789</v>
       </c>
       <c r="F120" t="s">
         <v>178</v>
@@ -84843,7 +84843,7 @@
         <v>177</v>
       </c>
       <c r="E121" s="7">
-        <v>34700</v>
+        <v>34789</v>
       </c>
       <c r="F121" t="s">
         <v>176</v>

--- a/scripts/base2000.xlsx
+++ b/scripts/base2000.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -1858,7 +1858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DX219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DJ1" workbookViewId="0">
+    <sheetView topLeftCell="DJ1" workbookViewId="0">
       <selection activeCell="DX2" sqref="DX2"/>
     </sheetView>
   </sheetViews>
@@ -76702,8 +76702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K128"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120:XFD120"/>
+    <sheetView tabSelected="1" topLeftCell="G19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -77454,7 +77454,7 @@
         <v>211</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J23">
         <v>2</v>
